--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D3CC9-7EF5-4DD5-B1FB-46DDEBAD9404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1697,7 +1703,7 @@
     <t>A Ativa Investimentos tem expectativas construtivas para os resultados de Petrobras (PETR3; PETR4) e PetroRio (PRIO3) no segundo trimestre de 2022.</t>
   </si>
   <si>
-    <t xml:space="preserve">O preço do barril de petróleo derrete mais de 2,6%, estendendo as perdas registradas no pregão da última quarta-feira, em meio a preocupações renovadas quanto à possibilidade de recessão em escala global. </t>
+    <t>O preço do barril de petróleo derrete mais de 2,6%, estendendo as perdas registradas no pregão da última quarta-feira, em meio a preocupações renovadas quanto à possibilidade de recessão em escala global. </t>
   </si>
   <si>
     <t>A Federação Única dos Petroleiros (FUP) e a Associação Nacional dos Petroleiros Acionistas Minoritários da Petrobras (Anapetro) pretendem a anulação da assembleia geral extraordinária que elegeu o novo conselho de administração da Petrobras.</t>
@@ -1829,7 +1835,7 @@
     <t>A Petrobras (PETR3; PETR4) anunciou, nesta quinta-feira (28), um novo reajuste no preço do litro da gasolina vendida para as distribuidoras. O litro da gasolina será comercializado de R$ 3,86 para R$ 3,71 – uma redução de R$ 0,15 por litro ou de 3,88%.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em leve alta na abertura do pregão desta quinta-feira (21), puxado pelo movimento de aversão ao risco no exterior. Por volta das 9h05, a moeda norte-americana avançava 0,10%, a R$ 5,4769. </t>
+    <t>O dólar operava em leve alta na abertura do pregão desta quinta-feira (21), puxado pelo movimento de aversão ao risco no exterior. Por volta das 9h05, a moeda norte-americana avançava 0,10%, a R$ 5,4769. </t>
   </si>
   <si>
     <t>A Petrobras (PETR4) anunciou nesta quinta-feira (1º) uma redução de 7% no preço da gasolina, na segunda diminuição de valor do preço do combustível em pouco mais de duas semanas.</t>
@@ -1877,7 +1883,7 @@
     <t>A Petrobras (PETR4) pode anunciar o pagamento de US$ 12 bilhões em dividendos ao divulgar o balanço do segundo trimestre deste ano, segundo o Bradesco BBI. O valor equivaleria a R$ 64,3 bilhões e um rendimento em proventos de 16%.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>Boa tarde, investidor!</t>
@@ -1994,7 +2000,7 @@
     <t>O preço do petróleo está em derrocada nesta terça-feira (30), devolvendo todos os ganhos da segunda-feira.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa volta do feriado nacional com ajustes positivos a fazer, diante da alta em Wall Street na véspera. O iShares MSCI Brazil (EWZ), principal fundo de índice (ETF) brasileiro em Nova York, subiu quase 1%, sendo que os recibos de ações (ADRs) da Petrobras e da Vale fecharam no azul, relegando a derrocada do petróleo e os dados fracos da China. </t>
+    <t>O Ibovespa volta do feriado nacional com ajustes positivos a fazer, diante da alta em Wall Street na véspera. O iShares MSCI Brazil (EWZ), principal fundo de índice (ETF) brasileiro em Nova York, subiu quase 1%, sendo que os recibos de ações (ADRs) da Petrobras e da Vale fecharam no azul, relegando a derrocada do petróleo e os dados fracos da China. </t>
   </si>
   <si>
     <t>Preços do etanol mais baratos, boas pagadoras de dividendos no agronegócio e muito mais são o que mais despertaram o interesse dos investidores que acompanham o Agro Times.</t>
@@ -2045,7 +2051,7 @@
     <t>Os preços do petróleo subiram modestamente nesta quarta-feira, mesmo depois que os estoques de petróleo dos Estados Unidos aumentaram e depois que os números da inflação norte-americana reforçaram o caso de outro grande aumento da taxa de juros pelo Federal Reserve.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). </t>
+    <t>O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). </t>
   </si>
   <si>
     <t>O Ibovespa sucumbiu ao mau humor externo na última sexta-feira (19), com o rali do mercado de urso dando os primeiros sinais de esfriamento. E o clima mais hostil da semana passada continua nesta segunda-feira (22) com a aversão ao risco sendo atribuída à postura mais dura (“hawkish”) do Federal Reserve.</t>
@@ -2201,7 +2207,7 @@
     <t>A secretária do Tesouro dos EUA, Janet Yellen, disse neste sábado que teve reuniões produtivas sobre um teto de preço proposto para o petróleo russo com vários países durante uma reunião dos líderes financeiros do Grupo das 20 principais economias.</t>
   </si>
   <si>
-    <t xml:space="preserve">Índices acionários de Nova York encerraram o pregão desta quarta-feira (3) em alta, repercutindo a boa reação de investidores acerca dos resultados corporativos e dado positivo sobre o setor de serviços. </t>
+    <t>Índices acionários de Nova York encerraram o pregão desta quarta-feira (3) em alta, repercutindo a boa reação de investidores acerca dos resultados corporativos e dado positivo sobre o setor de serviços. </t>
   </si>
   <si>
     <t>O Comitê de Elegibilidade da Petrobras (PETR4) se reúne nesta quinta, 7, para avaliar o currículo de parte dos indicados do governo para o conselho de administração da estatal.</t>
@@ -2267,7 +2273,7 @@
     <t>A Petrobras (PETR4) avalia “todas as possibilidades do mercado”, incluindo a compra de diesel russo para garantir o abastecimento, afirmou nesta sexta-feira o diretor de Comercialização e Logística, Cláudio Mastella, quando questionado por jornalistas sobre o assunto.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta quinta-feira (28). Por volta das 9h00, a moeda avançava 0,36%, a R$ 5,2620. </t>
+    <t>O dólar operava em alta na abertura do pregão desta quinta-feira (28). Por volta das 9h00, a moeda avançava 0,36%, a R$ 5,2620. </t>
   </si>
   <si>
     <t>A Petrobras (PETR4)  disponibilizou, nesta terça-feira, uma consulta ao mercado para avaliar o interesse de empresas na compra de terrenos no Polo Gaslub, em Itaboraí (RJ).</t>
@@ -2336,7 +2342,7 @@
     <t>A PRIO, antiga PetroRio, celebrou memorando com a Prisma Capital, controladora da Dommo (DMMO3), para a compra da petroleira que pertenceu ao empresário Eike Batista, mostra comunicado enviado ao mercado nesta quinta-feira (01).</t>
   </si>
   <si>
-    <t xml:space="preserve">Se existe uma estatal brasileira que sente o período eleitoral “na pele” é a Petrobras (PETR4). Como seus negócios impactam diretamente o preço da gasolina, é comum que os brasileiros fiquem mais atentos ao que os possíveis governantes declaram sobre a empresa. Nesse caso, os dois principais candidatos à Presidência, Bolsonaro e Lula, têm um “inimigo” em comum: a política de preços da estatal, que mantém paridade com o mercado internacional. </t>
+    <t>Se existe uma estatal brasileira que sente o período eleitoral “na pele” é a Petrobras (PETR4). Como seus negócios impactam diretamente o preço da gasolina, é comum que os brasileiros fiquem mais atentos ao que os possíveis governantes declaram sobre a empresa. Nesse caso, os dois principais candidatos à Presidência, Bolsonaro e Lula, têm um “inimigo” em comum: a política de preços da estatal, que mantém paridade com o mercado internacional. </t>
   </si>
   <si>
     <t>A Braskem (BRKM5) viu o uso da capacidade de suas centrais petroquímicas recuar de modo generalizado no segundo trimestre, diante de paradas de manutenção e problemas de fornecimento, segundo dados operacionais preliminares divulgados pela empresa nesta quinta-feira.</t>
@@ -2387,7 +2393,7 @@
     <t>A Kapitalo Investimentos, uma das maiores gestoras de recursos independentes do Brasil, com cerca de R$ 25 bilhões sob gestão, tem explorado alguns exageros no mercado local antes das eleições presidenciais, com apostas que vão de posições vendidas em inflação implícita a alocações em Petrobras (PETR4).</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta segunda-feira (18). Por volta das 9h00, a moeda norte-americana recuava 0,53%, a R$ 5,3796. </t>
+    <t>O dólar operava em queda na abertura do pregão desta segunda-feira (18). Por volta das 9h00, a moeda norte-americana recuava 0,53%, a R$ 5,3796. </t>
   </si>
   <si>
     <t>O Conselho Administrativo de Defesa Econômica (Cade) abriu um inquérito para investigar indícios de práticas anticompetitivas pela Petrobras (PETR4) no fornecimento de petróleo a refinarias privadas, informou o órgão à Reuters nesta terça-feira.</t>
@@ -2405,7 +2411,7 @@
     <t>A semana começa em ritmo lento nos mercados. Os investidores estão à espera dos dados de inflação ao consumidor no Brasil (IPCA) e nos Estados Unidos (CPI), amanhã e quarta-feira, além da ata do Comitê de Política Monetária (Copom), também amanhã.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta sexta-feira (22). Por volta das 9h00, a moeda norte-americana recuava 0,15%, a R$ 5,4883. </t>
+    <t>O dólar operava em queda na abertura do pregão desta sexta-feira (22). Por volta das 9h00, a moeda norte-americana recuava 0,15%, a R$ 5,4883. </t>
   </si>
   <si>
     <t>Infraestrutura, ou muito do que está ao seu redor nesse exato momento. A estrada que você usou para ir ao trabalho hoje, o gás e a energia da sua casa, a transmissão de internet para que você possa ler esta matéria agora.</t>
@@ -2648,7 +2654,7 @@
     <t>O barril do petróleo segue estendendo um terceiro dia baixa, embora tenha ameaçado a entrar na tabela positiva assim que saíram os dados de empregos dos Estados Unidos, apontando mais vagas criadas do que se esperava em julho.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Wall Street fechou em queda nesta terça-feira, depois que crescentes sinais de recessão mantiveram compradores fora do mercado acionário antes da divulgação de dados de inflação na quarta-feira.</t>
+    <t> Wall Street fechou em queda nesta terça-feira, depois que crescentes sinais de recessão mantiveram compradores fora do mercado acionário antes da divulgação de dados de inflação na quarta-feira.</t>
   </si>
   <si>
     <t>As três varejistas da Bolsa, Via (VIIA3), Magazine Luiza (MGLU3) e Americanas (AMER3), dispararam nesta semana mais de 20%, recuperando um pouco o fôlego após meses de queda.</t>
@@ -2735,7 +2741,7 @@
     <t>As exportações brasileiras no primeiro semestre de 2022 foram marcadas por um aumento pouco expressivo em volume, de 0,2%, em relação ao mesmo período de 2021.  Na mesma comparação, percebe-se, no entanto, uma evolução de 20,2% nos preços.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta quinta-feira (14) em meio ao temor pelo aperto monetário e recessão nos Estados Unidos. Por volta das 9h05, a moeda norte-americana avançava 1,3%, a R$ 5,4620. </t>
+    <t>O dólar operava em alta na abertura do pregão desta quinta-feira (14) em meio ao temor pelo aperto monetário e recessão nos Estados Unidos. Por volta das 9h05, a moeda norte-americana avançava 1,3%, a R$ 5,4620. </t>
   </si>
   <si>
     <t>As ações europeias ampliaram o rali nesta quinta-feira, conforme o aumento dos preços do petróleo e dos metais elevou papéis ligados a commodities, enquanto um salto nos bancos impulsionou o principal índice da Itália para a melhor sessão desde meados de março.</t>
@@ -2792,7 +2798,7 @@
     <t>A União Europeia (UE) está buscando suprimentos adicionais de gás da Nigéria à medida que o bloco se prepara para potenciais cortes no fornecimento russo, disse o vice-diretor-geral do departamento de energia da Comissão Europeia, Matthew Baldwin, neste sábado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Os índices acionários de Nova York fecharam a terça-feira (30) em queda, repercutindo falas de membros do Federal Reserve e dados do mercado de trabalho americano referente ao mês de agosto. </t>
+    <t>Os índices acionários de Nova York fecharam a terça-feira (30) em queda, repercutindo falas de membros do Federal Reserve e dados do mercado de trabalho americano referente ao mês de agosto. </t>
   </si>
   <si>
     <t>O Ibovespa (IBOV) segue na contramão dos mercados globais e abre em queda nesta quinta-feira (21), após a decisão do BCE de elevar a taxa de juros em 0,5 ponto percentual para controlar a inflação no bloco.</t>
@@ -2873,7 +2879,7 @@
     <t>A PetroRio, ou PRIO (PRIO3), quer obter ganhos fiscais com a compra da Dommo (DMMO3), a antiga OGX de Eike Batista, disseram analistas nesta sexta-feira (2).</t>
   </si>
   <si>
-    <t xml:space="preserve">Na última semana, a Petrobras (PETR3;PETR4) trouxe uma “maré de boas notícias”. Em primeiro lugar, ela anunciou uma nova redução no preço da gasolina, fazendo com que o valor do litro fosse de R$ 3,86 para R$ 3,71. </t>
+    <t>Na última semana, a Petrobras (PETR3;PETR4) trouxe uma “maré de boas notícias”. Em primeiro lugar, ela anunciou uma nova redução no preço da gasolina, fazendo com que o valor do litro fosse de R$ 3,86 para R$ 3,71. </t>
   </si>
   <si>
     <t>Os preços da indústria subiram 1% em junho, frente a maio. De acordo com o Instituto Brasileiro de Geografia e Estatística (IBGE), o  acumulado no ano registrou alta de 10,12% e o acumulado em 12 meses chegou a 18,78%.</t>
@@ -4577,7 +4583,7 @@
     <t>Seja qual lado o etanol fechar a semana, ainda tem mais confusão que lógica de mercado</t>
   </si>
   <si>
-    <t xml:space="preserve">Ibovespa hoje: Crise de energia na Europa rouba a cena em dia de feriado nos EUA </t>
+    <t>Ibovespa hoje: Crise de energia na Europa rouba a cena em dia de feriado nos EUA </t>
   </si>
   <si>
     <t>Bonança no setor de energia eleva pagamentos de dividendos para um novo recorde</t>
@@ -5372,7 +5378,7 @@
     <t>As importações chinesas de commodities enfrentam fortes ventos contrários no segundo semestre, o que pode significar problemas para produtores de todo o mundo que dependem de seu motor econômico para suprir a demanda por energia, alimentos e matérias-primas.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa chega ao último pregão de agosto com a valorização de 7% acumulada no mês sob ameaça. A narrativa sobre inflação e juros altos volta a assustar o mercado financeiro, sobrepondo-se aos riscos de recessão, diante do compromisso dos bancos centrais de conter a alta dos preços.  </t>
+    <t>O Ibovespa chega ao último pregão de agosto com a valorização de 7% acumulada no mês sob ameaça. A narrativa sobre inflação e juros altos volta a assustar o mercado financeiro, sobrepondo-se aos riscos de recessão, diante do compromisso dos bancos centrais de conter a alta dos preços.  </t>
   </si>
   <si>
     <t>O BTG Pactual trocou os papéis da Vale (VALE3), Cyrela (CYRE3) e Energisa (ENGI11) por Petrobras (PETR3;PETR4), Cosan (CSAN3) e Minerva (BEEF3) para a carteira recomendada de dividendos de agosto, mostra relatório enviado a clientes.</t>
@@ -5456,7 +5462,7 @@
     <t>O movimento de preços do etanol hidratado nesta semana, antes dos postos, ainda não sentiu os efeitos da redução da gasolina na refinaria, em 4,9%, na quarta.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa deve ter uma semana arrastada, com os feriados nos Estados Unidos, hoje, e no Brasil, na quarta-feira, esvaziando a liquidez dos mercados. A bolsa brasileira testa a dinâmica própria diante da pressão vinda do exterior, especialmente da Europa, em meio à crise de energia na região. </t>
+    <t>O Ibovespa deve ter uma semana arrastada, com os feriados nos Estados Unidos, hoje, e no Brasil, na quarta-feira, esvaziando a liquidez dos mercados. A bolsa brasileira testa a dinâmica própria diante da pressão vinda do exterior, especialmente da Europa, em meio à crise de energia na região. </t>
   </si>
   <si>
     <t>Empresas de energia que obtiveram lucros recordes com os preços elevados do petróleo e do gás contribuíram para que os pagamentos globais de dividendos a acionistas superassem os níveis pré-pandemia e atingissem uma alta trimestral recorde, mostraram dados na quarta-feira.</t>
@@ -5498,7 +5504,7 @@
     <t>O modelo de mercado do JPMorgan pode ter mostrado que a precificação de uma recessão nos EUA caiu muito, mas outros indicadores de mercado estão bem mais pessimistas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wall Street inicia a primeira hora do pregão desta quarta-feira (3) com perspectiva mais positiva, após o avião de Nancy Pelosi partir de Taiwan. A visita da presidente da Câmara dos Representantes dos Estados Unidos é o epicentro da mais recente tensão geopolítica entre China e EUA. </t>
+    <t>Wall Street inicia a primeira hora do pregão desta quarta-feira (3) com perspectiva mais positiva, após o avião de Nancy Pelosi partir de Taiwan. A visita da presidente da Câmara dos Representantes dos Estados Unidos é o epicentro da mais recente tensão geopolítica entre China e EUA. </t>
   </si>
   <si>
     <t>A portuguesa Galp venceu processo de venda direta realizado pela Pré-Sal Petróleo (PPSA) para comercializar a primeira carga de 500 mil barris de petróleo da União oriunda do contrato de partilha de produção de Sépia, informou a PPSA nesta quarta-feira.</t>
@@ -5537,7 +5543,7 @@
     <t>A brusca redução nos preços de referência do óleo diesel e da gasolina no mercado internacional no fechamento desta terça-feira, 5, puxada pela queda do preço do petróleo para perto de US$ 100 o barril no mercado internacional, fez com que os preços médios praticados no Brasil ficassem mais altos do que os comercializados no Golfo do México, puxados pelo mercado baiano.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Brasil é uma potência mundial no agronegócio há séculos. De olho nisso, os apresentadores Ratinho e Silvio Santos são alguns dos nomes que marcaram presença no setor. Os dois montaram impérios rurais gigantescos para surfar nos lucros bilionários do setor. </t>
+    <t>O Brasil é uma potência mundial no agronegócio há séculos. De olho nisso, os apresentadores Ratinho e Silvio Santos são alguns dos nomes que marcaram presença no setor. Os dois montaram impérios rurais gigantescos para surfar nos lucros bilionários do setor. </t>
   </si>
   <si>
     <t>O dólar abriu o pregão desta terça-feira (6), após o feriado nos Estados Unidos, em alta. Por volta das 9h00, a moeda avançava 0,44%, a R$ 5,1745.</t>
@@ -5606,7 +5612,7 @@
     <t>As ações da 3R Petroleum (RRRP3) caíram forte na sessão desta terça-feira (12) em meio à derrocada do preço do petróleo, que derreteu.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta quarta-feira (27), dia de decisão do Federal Reserve (Fed). Por volta das 9h00, a moeda recuava 0,38%, a R$ 5,3308. </t>
+    <t>O dólar operava em queda na abertura do pregão desta quarta-feira (27), dia de decisão do Federal Reserve (Fed). Por volta das 9h00, a moeda recuava 0,38%, a R$ 5,3308. </t>
   </si>
   <si>
     <t>Os preços do petróleo subiram quase 2% nesta segunda-feira em negociações voláteis, recuperando-se das mínimas de vários meses atingidas na semana passada, com dados econômicos positivos da China e dos Estados Unidos alimentando expectativas de demanda, apesar dos temores de uma recessão.</t>
@@ -5753,7 +5759,7 @@
     <t>Com os veículos elétricos em alta, a disputa por participação de mercado entre as startups que vendem carregadores domésticos está esquentando e isso alimentará mais negócios no setor, à medida que dezenas de milhões de unidades serão instaladas globalmente na próxima década.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bradesco (BBDC4) e Cielo (CIEL3) são alguns dos destaques corporativos desta quarta-feira (24), dia em que o Ibovespa pode testar novamente uma alta. </t>
+    <t>Bradesco (BBDC4) e Cielo (CIEL3) são alguns dos destaques corporativos desta quarta-feira (24), dia em que o Ibovespa pode testar novamente uma alta. </t>
   </si>
   <si>
     <t>O Itaú BBA fez duas alterações na composição do Radar de Preferências, que engloba as 18 melhores ideias de investimento.</t>
@@ -5822,7 +5828,7 @@
     <t>A Warren fez três trocas em sua carteira recomendada de ações para o mês de agosto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dados de inflação e atividade dividem a cena com a temporada de balanços ao longo da semana de 8 a 12 de agosto. Aqui, os destaques já começam nesta segunda-feira com o resultado trimestral do Itaú, após o fechamento do mercado. </t>
+    <t>Dados de inflação e atividade dividem a cena com a temporada de balanços ao longo da semana de 8 a 12 de agosto. Aqui, os destaques já começam nesta segunda-feira com o resultado trimestral do Itaú, após o fechamento do mercado. </t>
   </si>
   <si>
     <t>A Elite Investimentos fez apenas uma alteração em sua carteira recomendada de ações para a próxima semana, retirando a indicação de compra das units da Klabin (KLBN11), produtora de papel &amp; celulose.</t>
@@ -5921,7 +5927,7 @@
     <t>A demanda por gasolina C e etanol hidratado deve crescer gradualmente no Brasil no curto prazo, até o fim do ano, em função das isenções fiscais e das reduções de preços, segundo o mais recente relatório Latin American Oil Market Forecast, da S&amp;P Global Commodity Insights.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa abre o pregão desta sexta-feira (2) com as atenções dos mercados globais voltadas para os dados de emprego (payroll) nos Estados Unidos (9h30). Os investidores esperam que a criação de vagas, a taxa de desemprego e o rendimento médio real sejam ruins o suficiente para enfraquecer a postura agressiva (“hawkish”) do Federal Reserve.   </t>
+    <t>O Ibovespa abre o pregão desta sexta-feira (2) com as atenções dos mercados globais voltadas para os dados de emprego (payroll) nos Estados Unidos (9h30). Os investidores esperam que a criação de vagas, a taxa de desemprego e o rendimento médio real sejam ruins o suficiente para enfraquecer a postura agressiva (“hawkish”) do Federal Reserve.   </t>
   </si>
   <si>
     <t>O plano de Luiz Inácio Lula da Silva de manter a Petrobras (PETR4) como uma empresa estatal se for eleito novamente é um erro, segundo o ministro de Minas e Energia, Adolfo Sachsida.</t>
@@ -6929,8 +6935,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6993,6 +6999,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7039,7 +7053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7071,9 +7085,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7105,6 +7137,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7280,14 +7330,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B239" zoomScale="68" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="109.54296875" customWidth="1"/>
+    <col min="3" max="3" width="125.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7307,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7323,8 +7380,11 @@
       <c r="E2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7340,8 +7400,11 @@
       <c r="E3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7357,8 +7420,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7374,8 +7440,11 @@
       <c r="E5">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7391,8 +7460,11 @@
       <c r="E6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7408,8 +7480,11 @@
       <c r="E7">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7425,8 +7500,11 @@
       <c r="E8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7442,8 +7520,11 @@
       <c r="E9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -7459,8 +7540,11 @@
       <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7476,8 +7560,11 @@
       <c r="E11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7493,8 +7580,11 @@
       <c r="E12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7510,8 +7600,11 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7527,8 +7620,11 @@
       <c r="E14">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7544,8 +7640,11 @@
       <c r="E15">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7561,8 +7660,11 @@
       <c r="E16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7578,8 +7680,11 @@
       <c r="E17">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7595,8 +7700,11 @@
       <c r="E18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7612,8 +7720,11 @@
       <c r="E19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -7629,8 +7740,11 @@
       <c r="E20">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7646,8 +7760,11 @@
       <c r="E21">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7663,8 +7780,11 @@
       <c r="E22">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -7680,8 +7800,11 @@
       <c r="E23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -7697,8 +7820,11 @@
       <c r="E24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -7714,8 +7840,11 @@
       <c r="E25">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7731,8 +7860,11 @@
       <c r="E26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -7748,8 +7880,11 @@
       <c r="E27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7765,8 +7900,11 @@
       <c r="E28">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7782,8 +7920,11 @@
       <c r="E29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7799,8 +7940,11 @@
       <c r="E30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7816,8 +7960,11 @@
       <c r="E31">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7833,8 +7980,11 @@
       <c r="E32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -7850,8 +8000,11 @@
       <c r="E33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -7867,8 +8020,11 @@
       <c r="E34">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -7884,8 +8040,11 @@
       <c r="E35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -7901,8 +8060,11 @@
       <c r="E36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -7918,8 +8080,11 @@
       <c r="E37">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -7935,8 +8100,11 @@
       <c r="E38">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -7952,8 +8120,11 @@
       <c r="E39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7969,8 +8140,11 @@
       <c r="E40">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -7986,8 +8160,11 @@
       <c r="E41">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -8003,8 +8180,11 @@
       <c r="E42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8020,8 +8200,11 @@
       <c r="E43">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8037,8 +8220,11 @@
       <c r="E44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -8054,8 +8240,11 @@
       <c r="E45">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8071,8 +8260,11 @@
       <c r="E46">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8088,8 +8280,11 @@
       <c r="E47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -8105,8 +8300,11 @@
       <c r="E48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -8122,8 +8320,11 @@
       <c r="E49">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -8139,8 +8340,11 @@
       <c r="E50">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8156,8 +8360,11 @@
       <c r="E51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8173,8 +8380,11 @@
       <c r="E52">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8190,8 +8400,11 @@
       <c r="E53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -8207,8 +8420,11 @@
       <c r="E54">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8224,8 +8440,11 @@
       <c r="E55">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8241,8 +8460,11 @@
       <c r="E56">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8258,8 +8480,11 @@
       <c r="E57">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8275,8 +8500,11 @@
       <c r="E58">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8292,8 +8520,11 @@
       <c r="E59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -8309,8 +8540,11 @@
       <c r="E60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8326,8 +8560,11 @@
       <c r="E61">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -8343,8 +8580,11 @@
       <c r="E62">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -8360,8 +8600,11 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -8377,8 +8620,11 @@
       <c r="E64">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8394,8 +8640,11 @@
       <c r="E65">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -8411,8 +8660,11 @@
       <c r="E66">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -8428,8 +8680,11 @@
       <c r="E67">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -8445,8 +8700,11 @@
       <c r="E68">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -8462,8 +8720,11 @@
       <c r="E69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -8479,8 +8740,11 @@
       <c r="E70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8496,8 +8760,11 @@
       <c r="E71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -8513,8 +8780,11 @@
       <c r="E72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -8530,8 +8800,11 @@
       <c r="E73">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -8547,8 +8820,11 @@
       <c r="E74">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -8564,8 +8840,11 @@
       <c r="E75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -8581,8 +8860,11 @@
       <c r="E76">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -8598,8 +8880,11 @@
       <c r="E77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -8615,8 +8900,11 @@
       <c r="E78">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8632,8 +8920,11 @@
       <c r="E79">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -8649,8 +8940,11 @@
       <c r="E80">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -8666,8 +8960,11 @@
       <c r="E81">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -8683,8 +8980,11 @@
       <c r="E82">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -8700,8 +9000,11 @@
       <c r="E83">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -8717,8 +9020,11 @@
       <c r="E84">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -8734,8 +9040,11 @@
       <c r="E85">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -8751,8 +9060,11 @@
       <c r="E86">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -8768,8 +9080,11 @@
       <c r="E87">
         <v>41</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -8785,8 +9100,11 @@
       <c r="E88">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -8802,8 +9120,11 @@
       <c r="E89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -8819,8 +9140,11 @@
       <c r="E90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -8836,8 +9160,11 @@
       <c r="E91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -8853,8 +9180,11 @@
       <c r="E92">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -8870,8 +9200,11 @@
       <c r="E93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -8887,8 +9220,11 @@
       <c r="E94">
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -8904,8 +9240,11 @@
       <c r="E95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -8921,8 +9260,11 @@
       <c r="E96">
         <v>73</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -8938,8 +9280,11 @@
       <c r="E97">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -8955,8 +9300,11 @@
       <c r="E98">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -8972,8 +9320,11 @@
       <c r="E99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -8989,8 +9340,11 @@
       <c r="E100">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -9006,8 +9360,11 @@
       <c r="E101">
         <v>52</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -9023,8 +9380,11 @@
       <c r="E102">
         <v>34</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9040,8 +9400,11 @@
       <c r="E103">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -9057,8 +9420,11 @@
       <c r="E104">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -9074,8 +9440,11 @@
       <c r="E105">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -9091,8 +9460,11 @@
       <c r="E106">
         <v>59</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -9108,8 +9480,11 @@
       <c r="E107">
         <v>59</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -9125,8 +9500,11 @@
       <c r="E108">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -9142,8 +9520,11 @@
       <c r="E109">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -9159,8 +9540,11 @@
       <c r="E110">
         <v>38</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -9176,8 +9560,11 @@
       <c r="E111">
         <v>68</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -9193,8 +9580,11 @@
       <c r="E112">
         <v>65</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -9210,8 +9600,11 @@
       <c r="E113">
         <v>75</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9227,8 +9620,11 @@
       <c r="E114">
         <v>60</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -9244,8 +9640,11 @@
       <c r="E115">
         <v>39</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -9261,8 +9660,11 @@
       <c r="E116">
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -9278,8 +9680,11 @@
       <c r="E117">
         <v>74</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -9295,8 +9700,11 @@
       <c r="E118">
         <v>73</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -9312,8 +9720,11 @@
       <c r="E119">
         <v>58</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -9329,8 +9740,11 @@
       <c r="E120">
         <v>62</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -9346,8 +9760,11 @@
       <c r="E121">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -9363,8 +9780,11 @@
       <c r="E122">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -9380,8 +9800,11 @@
       <c r="E123">
         <v>37</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -9397,8 +9820,11 @@
       <c r="E124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -9414,8 +9840,11 @@
       <c r="E125">
         <v>42</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -9431,8 +9860,11 @@
       <c r="E126">
         <v>65</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -9448,8 +9880,11 @@
       <c r="E127">
         <v>75</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -9465,8 +9900,11 @@
       <c r="E128">
         <v>33</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -9482,8 +9920,11 @@
       <c r="E129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -9499,8 +9940,11 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -9516,8 +9960,11 @@
       <c r="E131">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -9533,8 +9980,11 @@
       <c r="E132">
         <v>68</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -9550,8 +10000,11 @@
       <c r="E133">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -9567,8 +10020,11 @@
       <c r="E134">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -9584,8 +10040,11 @@
       <c r="E135">
         <v>50</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -9601,8 +10060,11 @@
       <c r="E136">
         <v>47</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -9618,8 +10080,11 @@
       <c r="E137">
         <v>52</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -9635,8 +10100,11 @@
       <c r="E138">
         <v>67</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -9652,8 +10120,11 @@
       <c r="E139">
         <v>67</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -9669,8 +10140,11 @@
       <c r="E140">
         <v>54</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -9686,8 +10160,11 @@
       <c r="E141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -9703,8 +10180,11 @@
       <c r="E142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -9720,8 +10200,11 @@
       <c r="E143">
         <v>31</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -9737,8 +10220,11 @@
       <c r="E144">
         <v>67</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -9754,8 +10240,11 @@
       <c r="E145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -9771,8 +10260,11 @@
       <c r="E146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -9788,8 +10280,11 @@
       <c r="E147">
         <v>68</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -9805,8 +10300,11 @@
       <c r="E148">
         <v>62</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -9822,8 +10320,11 @@
       <c r="E149">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -9839,8 +10340,11 @@
       <c r="E150">
         <v>23</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -9856,8 +10360,11 @@
       <c r="E151">
         <v>44</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9873,8 +10380,11 @@
       <c r="E152">
         <v>69</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -9890,8 +10400,11 @@
       <c r="E153">
         <v>34</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -9907,8 +10420,11 @@
       <c r="E154">
         <v>64</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9924,8 +10440,11 @@
       <c r="E155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -9941,8 +10460,11 @@
       <c r="E156">
         <v>37</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -9958,8 +10480,11 @@
       <c r="E157">
         <v>55</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9975,8 +10500,11 @@
       <c r="E158">
         <v>36</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9992,8 +10520,11 @@
       <c r="E159">
         <v>41</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -10009,8 +10540,11 @@
       <c r="E160">
         <v>66</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -10026,8 +10560,11 @@
       <c r="E161">
         <v>26</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -10043,8 +10580,11 @@
       <c r="E162">
         <v>55</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -10060,8 +10600,11 @@
       <c r="E163">
         <v>62</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -10077,8 +10620,11 @@
       <c r="E164">
         <v>70</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -10094,8 +10640,11 @@
       <c r="E165">
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -10111,8 +10660,11 @@
       <c r="E166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -10128,8 +10680,11 @@
       <c r="E167">
         <v>57</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -10145,8 +10700,11 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -10162,8 +10720,11 @@
       <c r="E169">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10179,8 +10740,11 @@
       <c r="E170">
         <v>46</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -10196,8 +10760,11 @@
       <c r="E171">
         <v>66</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10213,8 +10780,11 @@
       <c r="E172">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -10230,8 +10800,11 @@
       <c r="E173">
         <v>35</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -10247,8 +10820,11 @@
       <c r="E174">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -10264,8 +10840,11 @@
       <c r="E175">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -10281,8 +10860,11 @@
       <c r="E176">
         <v>23</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10298,8 +10880,11 @@
       <c r="E177">
         <v>52</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>44</v>
       </c>
@@ -10315,8 +10900,11 @@
       <c r="E178">
         <v>36</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -10332,8 +10920,11 @@
       <c r="E179">
         <v>45</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -10349,8 +10940,11 @@
       <c r="E180">
         <v>23</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -10366,8 +10960,11 @@
       <c r="E181">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -10383,8 +10980,11 @@
       <c r="E182">
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -10400,8 +11000,11 @@
       <c r="E183">
         <v>37</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>29</v>
       </c>
@@ -10417,8 +11020,11 @@
       <c r="E184">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -10434,8 +11040,11 @@
       <c r="E185">
         <v>75</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -10451,8 +11060,11 @@
       <c r="E186">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -10468,8 +11080,11 @@
       <c r="E187">
         <v>71</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -10485,8 +11100,11 @@
       <c r="E188">
         <v>38</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -10502,8 +11120,11 @@
       <c r="E189">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -10519,8 +11140,11 @@
       <c r="E190">
         <v>65</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -10536,8 +11160,11 @@
       <c r="E191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -10553,8 +11180,11 @@
       <c r="E192">
         <v>58</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -10570,8 +11200,11 @@
       <c r="E193">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -10587,8 +11220,11 @@
       <c r="E194">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -10604,8 +11240,11 @@
       <c r="E195">
         <v>47</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -10621,8 +11260,11 @@
       <c r="E196">
         <v>39</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -10638,8 +11280,11 @@
       <c r="E197">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -10655,8 +11300,11 @@
       <c r="E198">
         <v>39</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -10672,8 +11320,11 @@
       <c r="E199">
         <v>35</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -10689,8 +11340,11 @@
       <c r="E200">
         <v>19</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -10706,8 +11360,11 @@
       <c r="E201">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -10723,8 +11380,11 @@
       <c r="E202">
         <v>64</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10740,8 +11400,11 @@
       <c r="E203">
         <v>20</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -10757,8 +11420,11 @@
       <c r="E204">
         <v>33</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -10774,8 +11440,11 @@
       <c r="E205">
         <v>43</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -10791,8 +11460,11 @@
       <c r="E206">
         <v>70</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -10808,8 +11480,11 @@
       <c r="E207">
         <v>43</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -10825,8 +11500,11 @@
       <c r="E208">
         <v>42</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -10842,8 +11520,11 @@
       <c r="E209">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -10859,8 +11540,11 @@
       <c r="E210">
         <v>28</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -10876,8 +11560,11 @@
       <c r="E211">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -10893,8 +11580,11 @@
       <c r="E212">
         <v>66</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -10910,8 +11600,11 @@
       <c r="E213">
         <v>43</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -10927,8 +11620,11 @@
       <c r="E214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -10944,8 +11640,11 @@
       <c r="E215">
         <v>58</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -10961,8 +11660,11 @@
       <c r="E216">
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -10978,8 +11680,11 @@
       <c r="E217">
         <v>72</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -10995,8 +11700,11 @@
       <c r="E218">
         <v>26</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -11012,8 +11720,11 @@
       <c r="E219">
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -11029,8 +11740,11 @@
       <c r="E220">
         <v>71</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -11046,8 +11760,11 @@
       <c r="E221">
         <v>19</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -11063,8 +11780,11 @@
       <c r="E222">
         <v>48</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -11080,8 +11800,11 @@
       <c r="E223">
         <v>55</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -11097,8 +11820,11 @@
       <c r="E224">
         <v>46</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11114,8 +11840,11 @@
       <c r="E225">
         <v>45</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -11131,8 +11860,11 @@
       <c r="E226">
         <v>17</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -11148,8 +11880,11 @@
       <c r="E227">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -11165,8 +11900,11 @@
       <c r="E228">
         <v>24</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -11182,8 +11920,11 @@
       <c r="E229">
         <v>51</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -11199,8 +11940,11 @@
       <c r="E230">
         <v>59</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -11216,8 +11960,11 @@
       <c r="E231">
         <v>31</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -11233,8 +11980,11 @@
       <c r="E232">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -11250,8 +12000,11 @@
       <c r="E233">
         <v>46</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -11267,8 +12020,11 @@
       <c r="E234">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -11284,8 +12040,11 @@
       <c r="E235">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -11301,8 +12060,11 @@
       <c r="E236">
         <v>65</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -11318,8 +12080,11 @@
       <c r="E237">
         <v>40</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -11335,8 +12100,11 @@
       <c r="E238">
         <v>61</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -11352,8 +12120,11 @@
       <c r="E239">
         <v>43</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -11369,8 +12140,11 @@
       <c r="E240">
         <v>53</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -11386,8 +12160,11 @@
       <c r="E241">
         <v>38</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -11403,8 +12180,11 @@
       <c r="E242">
         <v>29</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -11420,8 +12200,11 @@
       <c r="E243">
         <v>59</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -11437,8 +12220,11 @@
       <c r="E244">
         <v>28</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -11454,8 +12240,11 @@
       <c r="E245">
         <v>72</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -11471,8 +12260,11 @@
       <c r="E246">
         <v>69</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -11488,8 +12280,11 @@
       <c r="E247">
         <v>47</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -11505,8 +12300,11 @@
       <c r="E248">
         <v>63</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -11522,8 +12320,11 @@
       <c r="E249">
         <v>16</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -11539,8 +12340,11 @@
       <c r="E250">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -11556,8 +12360,11 @@
       <c r="E251">
         <v>9</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -11574,7 +12381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -11591,7 +12398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -11608,7 +12415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -11625,7 +12432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -11642,7 +12449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -11659,7 +12466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -11676,7 +12483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -11693,7 +12500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -11710,7 +12517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -11727,7 +12534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -11744,7 +12551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -11761,7 +12568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>41</v>
       </c>
@@ -11778,7 +12585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -11795,7 +12602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -11812,7 +12619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>41</v>
       </c>
@@ -11829,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -11846,7 +12653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -11863,7 +12670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -11880,7 +12687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -11897,7 +12704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -11914,7 +12721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -11931,7 +12738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -11948,7 +12755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -11965,7 +12772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -11982,7 +12789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -11999,7 +12806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12016,7 +12823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12033,7 +12840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -12050,7 +12857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -12067,7 +12874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -12084,7 +12891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -12101,7 +12908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -12118,7 +12925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -12135,7 +12942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -12152,7 +12959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -12169,7 +12976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -12186,7 +12993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -12203,7 +13010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -12220,7 +13027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -12237,7 +13044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -12254,7 +13061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -12271,7 +13078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -12288,7 +13095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -12305,7 +13112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -12322,7 +13129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -12339,7 +13146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -12356,7 +13163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -12373,7 +13180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -12390,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -12407,7 +13214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -12424,7 +13231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -12441,7 +13248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12458,7 +13265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -12475,7 +13282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -12492,7 +13299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -12509,7 +13316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -12526,7 +13333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -12543,7 +13350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -12560,7 +13367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -12577,7 +13384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>57</v>
       </c>
@@ -12594,7 +13401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>26</v>
       </c>
@@ -12611,7 +13418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>10</v>
       </c>
@@ -12628,7 +13435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>29</v>
       </c>
@@ -12645,7 +13452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>16</v>
       </c>
@@ -12662,7 +13469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>58</v>
       </c>
@@ -12679,7 +13486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -12696,7 +13503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>29</v>
       </c>
@@ -12713,7 +13520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -12730,7 +13537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -12747,7 +13554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -12764,7 +13571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -12781,7 +13588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -12798,7 +13605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -12815,7 +13622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -12832,7 +13639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -12849,7 +13656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -12866,7 +13673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12883,7 +13690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -12900,7 +13707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -12917,7 +13724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>10</v>
       </c>
@@ -12934,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -12951,7 +13758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>10</v>
       </c>
@@ -12968,7 +13775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -12985,7 +13792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -13002,7 +13809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>47</v>
       </c>
@@ -13019,7 +13826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -13036,7 +13843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -13053,7 +13860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -13070,7 +13877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -13087,7 +13894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -13104,7 +13911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13121,7 +13928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -13138,7 +13945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -13155,7 +13962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -13172,7 +13979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -13189,7 +13996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -13206,7 +14013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -13223,7 +14030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -13240,7 +14047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -13257,7 +14064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -13274,7 +14081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -13291,7 +14098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -13308,7 +14115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -13325,7 +14132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -13339,7 +14146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -13356,7 +14163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -13373,7 +14180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -13390,7 +14197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -13407,7 +14214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -13424,7 +14231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>50</v>
       </c>
@@ -13441,7 +14248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -13458,7 +14265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -13475,7 +14282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>10</v>
       </c>
@@ -13492,7 +14299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -13509,7 +14316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>10</v>
       </c>
@@ -13526,7 +14333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -13543,7 +14350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -13560,7 +14367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -13577,7 +14384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -13594,7 +14401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -13611,7 +14418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>10</v>
       </c>
@@ -13628,7 +14435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -13645,7 +14452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -13662,7 +14469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>29</v>
       </c>
@@ -13679,7 +14486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -13696,7 +14503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -13713,7 +14520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>62</v>
       </c>
@@ -13730,7 +14537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -13747,7 +14554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -13764,7 +14571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -13781,7 +14588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -13798,7 +14605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>29</v>
       </c>
@@ -13815,7 +14622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -13832,7 +14639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -13849,7 +14656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -13866,7 +14673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -13883,7 +14690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -13900,7 +14707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>63</v>
       </c>
@@ -13917,7 +14724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -13934,7 +14741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -13951,7 +14758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>64</v>
       </c>
@@ -13968,7 +14775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>32</v>
       </c>
@@ -13985,7 +14792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>65</v>
       </c>
@@ -14002,7 +14809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>10</v>
       </c>
@@ -14019,7 +14826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -14036,7 +14843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -14053,7 +14860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -14070,7 +14877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -14087,7 +14894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -14104,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -14121,7 +14928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>67</v>
       </c>
@@ -14138,7 +14945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -14155,7 +14962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>29</v>
       </c>
@@ -14172,7 +14979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>49</v>
       </c>
@@ -14189,7 +14996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>60</v>
       </c>
@@ -14206,7 +15013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -14223,7 +15030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>29</v>
       </c>
@@ -14240,7 +15047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -14257,7 +15064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -14271,7 +15078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -14288,7 +15095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -14305,7 +15112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -14322,7 +15129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -14339,7 +15146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>62</v>
       </c>
@@ -14356,7 +15163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -14373,7 +15180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -14390,7 +15197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -14407,7 +15214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -14424,7 +15231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -14441,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -14458,7 +15265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -14475,7 +15282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -14492,7 +15299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -14509,7 +15316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -14526,7 +15333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -14543,7 +15350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>29</v>
       </c>
@@ -14560,7 +15367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>10</v>
       </c>
@@ -14577,7 +15384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -14594,7 +15401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>10</v>
       </c>
@@ -14611,7 +15418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>54</v>
       </c>
@@ -14628,7 +15435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14645,7 +15452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>10</v>
       </c>
@@ -14662,7 +15469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -14679,7 +15486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>56</v>
       </c>
@@ -14696,7 +15503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -14713,7 +15520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -14730,7 +15537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -14747,7 +15554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -14764,7 +15571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -14781,7 +15588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -14798,7 +15605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -14815,7 +15622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -14832,7 +15639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -14849,7 +15656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -14866,7 +15673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -14883,7 +15690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -14900,7 +15707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -14917,7 +15724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -14934,7 +15741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -14957,14 +15764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14984,7 +15791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -15001,7 +15808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -15018,7 +15825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1407</v>
       </c>
@@ -15035,7 +15842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1408</v>
       </c>
@@ -15052,7 +15859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -15069,7 +15876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -15086,7 +15893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -15103,7 +15910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -15120,7 +15927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1409</v>
       </c>
@@ -15137,7 +15944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -15154,7 +15961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -15171,7 +15978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -15188,7 +15995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15205,7 +16012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -15222,7 +16029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -15239,7 +16046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -15256,7 +16063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -15273,7 +16080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1410</v>
       </c>
@@ -15290,7 +16097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -15307,7 +16114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -15324,7 +16131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -15341,7 +16148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -15358,7 +16165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -15375,7 +16182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -15392,7 +16199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +16216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -15426,7 +16233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -15443,7 +16250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1411</v>
       </c>
@@ -15460,7 +16267,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -15477,7 +16284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -15494,7 +16301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -15511,7 +16318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -15528,7 +16335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -15545,7 +16352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -15562,7 +16369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -15579,7 +16386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -15596,7 +16403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -15613,7 +16420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -15630,7 +16437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -15647,7 +16454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1407</v>
       </c>
@@ -15664,7 +16471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1412</v>
       </c>
@@ -15681,7 +16488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -15698,7 +16505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -15715,7 +16522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -15732,7 +16539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -15749,7 +16556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -15766,7 +16573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -15783,7 +16590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -15800,7 +16607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -15817,7 +16624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -15834,7 +16641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -15851,7 +16658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -15868,7 +16675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -15885,7 +16692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -15902,7 +16709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -15919,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -15936,7 +16743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -15953,7 +16760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -15970,7 +16777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1413</v>
       </c>
@@ -15987,7 +16794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16004,7 +16811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -16021,7 +16828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -16038,7 +16845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -16055,7 +16862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -16072,7 +16879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -16089,7 +16896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -16106,7 +16913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -16123,7 +16930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -16140,7 +16947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -16157,7 +16964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -16174,7 +16981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -16191,7 +16998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -16208,7 +17015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -16225,7 +17032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -16242,7 +17049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -16259,7 +17066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -16276,7 +17083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -16293,7 +17100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -16310,7 +17117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -16327,7 +17134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -16344,7 +17151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -16361,7 +17168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -16378,7 +17185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -16395,7 +17202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -16409,7 +17216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -16426,7 +17233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -16443,7 +17250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -16460,7 +17267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -16477,7 +17284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -16494,7 +17301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -16511,7 +17318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -16528,7 +17335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -16545,7 +17352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -16562,7 +17369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -16579,7 +17386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1414</v>
       </c>
@@ -16596,7 +17403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -16613,7 +17420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -16630,7 +17437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -16647,7 +17454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -16664,7 +17471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -16681,7 +17488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -16698,7 +17505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -16715,7 +17522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -16732,7 +17539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -16749,7 +17556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -16766,7 +17573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -16783,7 +17590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -16800,7 +17607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1415</v>
       </c>
@@ -16817,7 +17624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -16834,7 +17641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -16851,7 +17658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -16868,7 +17675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1410</v>
       </c>
@@ -16885,7 +17692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -16902,7 +17709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -16919,7 +17726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -16936,7 +17743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -16953,7 +17760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -16970,7 +17777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -16987,7 +17794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -17004,7 +17811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -17021,7 +17828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -17038,7 +17845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -17055,7 +17862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -17072,7 +17879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -17089,7 +17896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -17106,7 +17913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -17123,7 +17930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -17140,7 +17947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -17157,7 +17964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -17174,7 +17981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -17191,7 +17998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -17208,7 +18015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -17225,7 +18032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -17242,7 +18049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -17259,7 +18066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -17276,7 +18083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -17293,7 +18100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -17310,7 +18117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -17327,7 +18134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +18151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -17361,7 +18168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -17378,7 +18185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -17395,7 +18202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -17412,7 +18219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1416</v>
       </c>
@@ -17429,7 +18236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -17446,7 +18253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -17463,7 +18270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -17480,7 +18287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -17497,7 +18304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -17514,7 +18321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -17531,7 +18338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -17548,7 +18355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -17565,7 +18372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -17582,7 +18389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -17599,7 +18406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -17616,7 +18423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>29</v>
       </c>
@@ -17633,7 +18440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -17650,7 +18457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -17667,7 +18474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -17684,7 +18491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -17701,7 +18508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +18525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>48</v>
       </c>
@@ -17735,7 +18542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -17752,7 +18559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1417</v>
       </c>
@@ -17769,7 +18576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -17786,7 +18593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -17803,7 +18610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -17820,7 +18627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -17837,7 +18644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -17854,7 +18661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -17871,7 +18678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -17888,7 +18695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -17905,7 +18712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -17922,7 +18729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -17939,7 +18746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>29</v>
       </c>
@@ -17956,7 +18763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -17973,7 +18780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -17990,7 +18797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -18007,7 +18814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -18024,7 +18831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -18041,7 +18848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -18058,7 +18865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -18075,7 +18882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -18092,7 +18899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -18109,7 +18916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -18126,7 +18933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -18143,7 +18950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -18160,7 +18967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -18177,7 +18984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -18194,7 +19001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -18211,7 +19018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -18228,7 +19035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -18245,7 +19052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -18262,7 +19069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -18279,7 +19086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -18296,7 +19103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -18313,7 +19120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -18330,7 +19137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -18347,7 +19154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -18364,7 +19171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -18381,7 +19188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -18398,7 +19205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -18415,7 +19222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -18432,7 +19239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -18449,7 +19256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -18466,7 +19273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -18483,7 +19290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -18500,7 +19307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -18517,7 +19324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -18534,7 +19341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -18551,7 +19358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -18568,7 +19375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -18585,7 +19392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -18602,7 +19409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -18619,7 +19426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>40</v>
       </c>
@@ -18636,7 +19443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -18653,7 +19460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -18670,7 +19477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -18687,7 +19494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -18704,7 +19511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -18721,7 +19528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -18738,7 +19545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -18755,7 +19562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -18772,7 +19579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -18789,7 +19596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -18806,7 +19613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -18823,7 +19630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -18840,7 +19647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -18857,7 +19664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -18874,7 +19681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>54</v>
       </c>
@@ -18891,7 +19698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -18908,7 +19715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -18925,7 +19732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -18942,7 +19749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1418</v>
       </c>
@@ -18959,7 +19766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -18976,7 +19783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -18993,7 +19800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1419</v>
       </c>
@@ -19010,7 +19817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -19027,7 +19834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -19044,7 +19851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -19061,7 +19868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>37</v>
       </c>
@@ -19078,7 +19885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -19095,7 +19902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -19112,7 +19919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -19129,7 +19936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -19146,7 +19953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -19163,7 +19970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -19180,7 +19987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -19197,7 +20004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -19214,7 +20021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -19231,7 +20038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -19248,7 +20055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -19265,7 +20072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -19282,7 +20089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -19299,7 +20106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -19316,7 +20123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -19333,7 +20140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -19350,7 +20157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -19367,7 +20174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -19384,7 +20191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -19401,7 +20208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -19418,7 +20225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -19435,7 +20242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -19452,7 +20259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -19469,7 +20276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1420</v>
       </c>
@@ -19486,7 +20293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -19503,7 +20310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -19520,7 +20327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -19537,7 +20344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -19554,7 +20361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -19571,7 +20378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -19588,7 +20395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>37</v>
       </c>
@@ -19605,7 +20412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -19622,7 +20429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -19639,7 +20446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -19656,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -19673,7 +20480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -19690,7 +20497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -19707,7 +20514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>65</v>
       </c>
@@ -19724,7 +20531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -19741,7 +20548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>37</v>
       </c>
@@ -19758,7 +20565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -19775,7 +20582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1421</v>
       </c>
@@ -19792,7 +20599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1422</v>
       </c>
@@ -19809,7 +20616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -19826,7 +20633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -19843,7 +20650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -19860,7 +20667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -19877,7 +20684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -19894,7 +20701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -19911,7 +20718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -19928,7 +20735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>29</v>
       </c>
@@ -19945,7 +20752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -19962,7 +20769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -19979,7 +20786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -19996,7 +20803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>29</v>
       </c>
@@ -20013,7 +20820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -20030,7 +20837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -20047,7 +20854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>41</v>
       </c>
@@ -20064,7 +20871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>10</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper Eng Comp 2 Semestre\codesing de apps\22-2a-cd-p1-grupo_rodrigol5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D3CC9-7EF5-4DD5-B1FB-46DDEBAD9404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907E38D-6929-45E1-8BD1-BB5361143990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7011,7 +7011,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7333,18 +7333,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B239" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView topLeftCell="D1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250:B251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="109.54296875" customWidth="1"/>
-    <col min="3" max="3" width="125.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="199.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -7824,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7924,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -8184,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -9324,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -9344,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -10024,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -10384,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -10464,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -10664,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10784,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>44</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -11004,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>29</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -11144,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -11304,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -11404,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11424,7 +11427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -11524,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -11544,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -11644,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -11664,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -11744,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -11884,7 +11887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -11984,7 +11987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -12024,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -12144,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -12244,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -12304,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -12344,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -12360,11 +12363,8 @@
       <c r="E251">
         <v>9</v>
       </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>41</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>41</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>57</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>26</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>10</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>29</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>16</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>58</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>29</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>10</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>10</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>47</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>50</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>10</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>10</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>10</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>29</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>62</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>29</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>63</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>64</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>32</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>65</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>10</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>67</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>29</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>49</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>60</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>29</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>62</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>29</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>10</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>10</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>54</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>10</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>56</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -15760,6 +15760,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15767,11 +15768,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C199" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15791,7 +15802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -15808,7 +15819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -15825,7 +15836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1407</v>
       </c>
@@ -15842,7 +15853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1408</v>
       </c>
@@ -15859,7 +15870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -15876,7 +15887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -15893,7 +15904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -15910,7 +15921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -15927,7 +15938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1409</v>
       </c>
@@ -15944,7 +15955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -15961,7 +15972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -15978,7 +15989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -15995,7 +16006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -16012,7 +16023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -16029,7 +16040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -16046,7 +16057,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -16063,7 +16074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -16080,7 +16091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1410</v>
       </c>
@@ -16097,7 +16108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -16114,7 +16125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -16131,7 +16142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -16148,7 +16159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -16165,7 +16176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16182,7 +16193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -16199,7 +16210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -16216,7 +16227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -16233,7 +16244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -16250,7 +16261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1411</v>
       </c>
@@ -16267,7 +16278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -16284,7 +16295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -16301,7 +16312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -16318,7 +16329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -16335,7 +16346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -16352,7 +16363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -16369,7 +16380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -16386,7 +16397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -16403,7 +16414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -16420,7 +16431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -16437,7 +16448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -16454,7 +16465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1407</v>
       </c>
@@ -16471,7 +16482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1412</v>
       </c>
@@ -16488,7 +16499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -16505,7 +16516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -16522,7 +16533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -16539,7 +16550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -16556,7 +16567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -16573,7 +16584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -16590,7 +16601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -16607,7 +16618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -16624,7 +16635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -16641,7 +16652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -16658,7 +16669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -16675,7 +16686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -16692,7 +16703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -16709,7 +16720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -16726,7 +16737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -16743,7 +16754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -16760,7 +16771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -16777,7 +16788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1413</v>
       </c>
@@ -16794,7 +16805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16811,7 +16822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -16828,7 +16839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -16845,7 +16856,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -16862,7 +16873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -16879,7 +16890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -16896,7 +16907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -16913,7 +16924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -16930,7 +16941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -16947,7 +16958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -16964,7 +16975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -16981,7 +16992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -16998,7 +17009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -17015,7 +17026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -17032,7 +17043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -17049,7 +17060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -17066,7 +17077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -17083,7 +17094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -17100,7 +17111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -17117,7 +17128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -17134,7 +17145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -17151,7 +17162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -17168,7 +17179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -17185,7 +17196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -17202,7 +17213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -17216,7 +17227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -17233,7 +17244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -17250,7 +17261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -17284,7 +17295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -17301,7 +17312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -17318,7 +17329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -17335,7 +17346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -17352,7 +17363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -17369,7 +17380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -17386,7 +17397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1414</v>
       </c>
@@ -17403,7 +17414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -17420,7 +17431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -17437,7 +17448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -17454,7 +17465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -17471,7 +17482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -17488,7 +17499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -17505,7 +17516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -17522,7 +17533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -17539,7 +17550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -17556,7 +17567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -17573,7 +17584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -17590,7 +17601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -17607,7 +17618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1415</v>
       </c>
@@ -17624,7 +17635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -17641,7 +17652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -17658,7 +17669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -17675,7 +17686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1410</v>
       </c>
@@ -17692,7 +17703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -17709,7 +17720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -17726,7 +17737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -17743,7 +17754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -17760,7 +17771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -17777,7 +17788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -17794,7 +17805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -17811,7 +17822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -17828,7 +17839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -17862,7 +17873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -17879,7 +17890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -17896,7 +17907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -17913,7 +17924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -17930,7 +17941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -17947,7 +17958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -17964,7 +17975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -17981,7 +17992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -17998,7 +18009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -18015,7 +18026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -18032,7 +18043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -18049,7 +18060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -18066,7 +18077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -18083,7 +18094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -18100,7 +18111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -18117,7 +18128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -18134,7 +18145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -18151,7 +18162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -18168,7 +18179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -18185,7 +18196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -18202,7 +18213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -18219,7 +18230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1416</v>
       </c>
@@ -18236,7 +18247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -18253,7 +18264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -18270,7 +18281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -18287,7 +18298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -18304,7 +18315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -18321,7 +18332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -18338,7 +18349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -18355,7 +18366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -18372,7 +18383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -18389,7 +18400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -18406,7 +18417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -18423,7 +18434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>29</v>
       </c>
@@ -18440,7 +18451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -18457,7 +18468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -18474,7 +18485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -18491,7 +18502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -18508,7 +18519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -18525,7 +18536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>48</v>
       </c>
@@ -18542,7 +18553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -18559,7 +18570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1417</v>
       </c>
@@ -18576,7 +18587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -18593,7 +18604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -18610,7 +18621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -18627,7 +18638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -18644,7 +18655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -18661,7 +18672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -18678,7 +18689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -18695,7 +18706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -18712,7 +18723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -18729,7 +18740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -18746,7 +18757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>29</v>
       </c>
@@ -18763,7 +18774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -18780,7 +18791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -18797,7 +18808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -18814,7 +18825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -18831,7 +18842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -18848,7 +18859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -18865,7 +18876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -18882,7 +18893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -18899,7 +18910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -18916,7 +18927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -18933,7 +18944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -18950,7 +18961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -18967,7 +18978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -18984,7 +18995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -19001,7 +19012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -19018,7 +19029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -19035,7 +19046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -19052,7 +19063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -19069,7 +19080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -19086,7 +19097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -19103,7 +19114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -19120,7 +19131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -19137,7 +19148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -19154,7 +19165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -19171,7 +19182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -19187,8 +19198,11 @@
       <c r="E201">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -19204,8 +19218,11 @@
       <c r="E202">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -19221,8 +19238,11 @@
       <c r="E203">
         <v>32</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -19238,8 +19258,11 @@
       <c r="E204">
         <v>54</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -19255,8 +19278,11 @@
       <c r="E205">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -19272,8 +19298,11 @@
       <c r="E206">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -19289,8 +19318,11 @@
       <c r="E207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -19306,8 +19338,11 @@
       <c r="E208">
         <v>70</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -19323,8 +19358,11 @@
       <c r="E209">
         <v>48</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -19340,8 +19378,11 @@
       <c r="E210">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -19357,8 +19398,11 @@
       <c r="E211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -19374,8 +19418,11 @@
       <c r="E212">
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -19391,8 +19438,11 @@
       <c r="E213">
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -19408,8 +19458,11 @@
       <c r="E214">
         <v>30</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -19425,8 +19478,11 @@
       <c r="E215">
         <v>67</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>40</v>
       </c>
@@ -19442,8 +19498,11 @@
       <c r="E216">
         <v>43</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -19459,8 +19518,11 @@
       <c r="E217">
         <v>72</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -19476,8 +19538,11 @@
       <c r="E218">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -19493,8 +19558,11 @@
       <c r="E219">
         <v>75</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -19510,8 +19578,11 @@
       <c r="E220">
         <v>30</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -19527,8 +19598,11 @@
       <c r="E221">
         <v>23</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -19544,8 +19618,11 @@
       <c r="E222">
         <v>31</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -19561,8 +19638,11 @@
       <c r="E223">
         <v>75</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -19578,8 +19658,11 @@
       <c r="E224">
         <v>31</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -19595,8 +19678,11 @@
       <c r="E225">
         <v>29</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -19612,8 +19698,11 @@
       <c r="E226">
         <v>15</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -19629,8 +19718,11 @@
       <c r="E227">
         <v>11</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -19646,8 +19738,11 @@
       <c r="E228">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -19663,8 +19758,11 @@
       <c r="E229">
         <v>56</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -19680,8 +19778,11 @@
       <c r="E230">
         <v>46</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>54</v>
       </c>
@@ -19697,8 +19798,11 @@
       <c r="E231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -19714,8 +19818,11 @@
       <c r="E232">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -19731,8 +19838,11 @@
       <c r="E233">
         <v>54</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -19748,8 +19858,11 @@
       <c r="E234">
         <v>37</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1418</v>
       </c>
@@ -19765,8 +19878,11 @@
       <c r="E235">
         <v>28</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -19782,8 +19898,11 @@
       <c r="E236">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -19799,8 +19918,11 @@
       <c r="E237">
         <v>61</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1419</v>
       </c>
@@ -19816,8 +19938,11 @@
       <c r="E238">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -19833,8 +19958,11 @@
       <c r="E239">
         <v>32</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -19850,8 +19978,11 @@
       <c r="E240">
         <v>56</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -19867,8 +19998,11 @@
       <c r="E241">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>37</v>
       </c>
@@ -19884,8 +20018,11 @@
       <c r="E242">
         <v>65</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -19901,8 +20038,11 @@
       <c r="E243">
         <v>49</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -19918,8 +20058,11 @@
       <c r="E244">
         <v>75</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -19935,8 +20078,11 @@
       <c r="E245">
         <v>41</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -19952,8 +20098,11 @@
       <c r="E246">
         <v>29</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -19969,8 +20118,11 @@
       <c r="E247">
         <v>24</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -19986,8 +20138,11 @@
       <c r="E248">
         <v>24</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -20003,8 +20158,11 @@
       <c r="E249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -20020,8 +20178,11 @@
       <c r="E250">
         <v>35</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -20037,8 +20198,11 @@
       <c r="E251">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -20054,8 +20218,11 @@
       <c r="E252">
         <v>16</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -20071,8 +20238,11 @@
       <c r="E253">
         <v>53</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -20088,8 +20258,11 @@
       <c r="E254">
         <v>52</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -20105,8 +20278,11 @@
       <c r="E255">
         <v>14</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -20122,8 +20298,11 @@
       <c r="E256">
         <v>14</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -20139,8 +20318,11 @@
       <c r="E257">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -20156,8 +20338,11 @@
       <c r="E258">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -20173,8 +20358,11 @@
       <c r="E259">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -20190,8 +20378,11 @@
       <c r="E260">
         <v>15</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -20207,8 +20398,11 @@
       <c r="E261">
         <v>30</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -20224,8 +20418,11 @@
       <c r="E262">
         <v>47</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -20241,8 +20438,11 @@
       <c r="E263">
         <v>25</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -20258,8 +20458,11 @@
       <c r="E264">
         <v>70</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -20275,8 +20478,11 @@
       <c r="E265">
         <v>43</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1420</v>
       </c>
@@ -20292,8 +20498,11 @@
       <c r="E266">
         <v>71</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -20309,8 +20518,11 @@
       <c r="E267">
         <v>69</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -20326,8 +20538,11 @@
       <c r="E268">
         <v>27</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -20343,8 +20558,11 @@
       <c r="E269">
         <v>57</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -20360,8 +20578,11 @@
       <c r="E270">
         <v>63</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -20377,8 +20598,11 @@
       <c r="E271">
         <v>63</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -20394,8 +20618,11 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>37</v>
       </c>
@@ -20411,8 +20638,11 @@
       <c r="E273">
         <v>70</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -20428,8 +20658,11 @@
       <c r="E274">
         <v>67</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -20445,8 +20678,11 @@
       <c r="E275">
         <v>69</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -20462,8 +20698,11 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -20479,8 +20718,11 @@
       <c r="E277">
         <v>30</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -20496,8 +20738,11 @@
       <c r="E278">
         <v>40</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -20513,8 +20758,11 @@
       <c r="E279">
         <v>65</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>65</v>
       </c>
@@ -20530,8 +20778,11 @@
       <c r="E280">
         <v>37</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -20547,8 +20798,11 @@
       <c r="E281">
         <v>61</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>37</v>
       </c>
@@ -20564,8 +20818,11 @@
       <c r="E282">
         <v>60</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -20581,8 +20838,11 @@
       <c r="E283">
         <v>34</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1421</v>
       </c>
@@ -20598,8 +20858,11 @@
       <c r="E284">
         <v>59</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1422</v>
       </c>
@@ -20615,8 +20878,11 @@
       <c r="E285">
         <v>19</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -20632,8 +20898,11 @@
       <c r="E286">
         <v>73</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -20649,8 +20918,11 @@
       <c r="E287">
         <v>45</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -20666,8 +20938,11 @@
       <c r="E288">
         <v>21</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -20683,8 +20958,11 @@
       <c r="E289">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -20700,8 +20978,11 @@
       <c r="E290">
         <v>49</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -20717,8 +20998,11 @@
       <c r="E291">
         <v>38</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -20734,8 +21018,11 @@
       <c r="E292">
         <v>41</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>29</v>
       </c>
@@ -20751,8 +21038,11 @@
       <c r="E293">
         <v>65</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -20768,8 +21058,11 @@
       <c r="E294">
         <v>49</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -20785,8 +21078,11 @@
       <c r="E295">
         <v>19</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -20802,8 +21098,11 @@
       <c r="E296">
         <v>74</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>29</v>
       </c>
@@ -20819,8 +21118,11 @@
       <c r="E297">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -20836,8 +21138,11 @@
       <c r="E298">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -20853,8 +21158,11 @@
       <c r="E299">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>41</v>
       </c>
@@ -20870,8 +21178,11 @@
       <c r="E300">
         <v>51</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -20886,6 +21197,9 @@
       </c>
       <c r="E301">
         <v>13</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper Eng Comp 2 Semestre\codesing de apps\22-2a-cd-p1-grupo_rodrigol5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907E38D-6929-45E1-8BD1-BB5361143990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEE163-ED2E-456D-9B1E-10E308936CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7011,7 +7011,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7333,21 +7333,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250:B251"/>
+    <sheetView tabSelected="1" topLeftCell="B426" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="199.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="199.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>44</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>29</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>52</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>41</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>41</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -13230,8 +13230,11 @@
       <c r="E302">
         <v>61</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -13247,8 +13250,11 @@
       <c r="E303">
         <v>20</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -13264,8 +13270,11 @@
       <c r="E304">
         <v>22</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -13281,8 +13290,11 @@
       <c r="E305">
         <v>59</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -13298,8 +13310,11 @@
       <c r="E306">
         <v>41</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -13315,8 +13330,11 @@
       <c r="E307">
         <v>44</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -13332,8 +13350,11 @@
       <c r="E308">
         <v>64</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -13349,8 +13370,11 @@
       <c r="E309">
         <v>60</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -13366,8 +13390,11 @@
       <c r="E310">
         <v>12</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -13383,8 +13410,11 @@
       <c r="E311">
         <v>51</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>57</v>
       </c>
@@ -13400,8 +13430,11 @@
       <c r="E312">
         <v>64</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>26</v>
       </c>
@@ -13417,8 +13450,11 @@
       <c r="E313">
         <v>11</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>10</v>
       </c>
@@ -13434,8 +13470,11 @@
       <c r="E314">
         <v>60</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>29</v>
       </c>
@@ -13451,8 +13490,11 @@
       <c r="E315">
         <v>69</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>16</v>
       </c>
@@ -13468,8 +13510,11 @@
       <c r="E316">
         <v>52</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>58</v>
       </c>
@@ -13485,8 +13530,11 @@
       <c r="E317">
         <v>70</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -13502,8 +13550,11 @@
       <c r="E318">
         <v>20</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>29</v>
       </c>
@@ -13519,8 +13570,11 @@
       <c r="E319">
         <v>7</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -13536,8 +13590,11 @@
       <c r="E320">
         <v>30</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -13553,8 +13610,11 @@
       <c r="E321">
         <v>44</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -13570,8 +13630,11 @@
       <c r="E322">
         <v>65</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -13587,8 +13650,11 @@
       <c r="E323">
         <v>27</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -13604,8 +13670,11 @@
       <c r="E324">
         <v>54</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -13621,8 +13690,11 @@
       <c r="E325">
         <v>37</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -13638,8 +13710,11 @@
       <c r="E326">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -13655,8 +13730,11 @@
       <c r="E327">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -13672,8 +13750,11 @@
       <c r="E328">
         <v>26</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -13689,8 +13770,11 @@
       <c r="E329">
         <v>18</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -13706,8 +13790,11 @@
       <c r="E330">
         <v>70</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -13723,8 +13810,11 @@
       <c r="E331">
         <v>19</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>10</v>
       </c>
@@ -13740,8 +13830,11 @@
       <c r="E332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -13757,8 +13850,11 @@
       <c r="E333">
         <v>9</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>10</v>
       </c>
@@ -13774,8 +13870,11 @@
       <c r="E334">
         <v>51</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -13791,8 +13890,11 @@
       <c r="E335">
         <v>33</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -13808,8 +13910,11 @@
       <c r="E336">
         <v>5</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>47</v>
       </c>
@@ -13825,8 +13930,11 @@
       <c r="E337">
         <v>16</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -13842,8 +13950,11 @@
       <c r="E338">
         <v>39</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -13859,8 +13970,11 @@
       <c r="E339">
         <v>14</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -13876,8 +13990,11 @@
       <c r="E340">
         <v>56</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -13893,8 +14010,11 @@
       <c r="E341">
         <v>29</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -13910,8 +14030,11 @@
       <c r="E342">
         <v>35</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13927,8 +14050,11 @@
       <c r="E343">
         <v>51</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -13944,8 +14070,11 @@
       <c r="E344">
         <v>25</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -13961,8 +14090,11 @@
       <c r="E345">
         <v>54</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -13978,8 +14110,11 @@
       <c r="E346">
         <v>20</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -13995,8 +14130,11 @@
       <c r="E347">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -14012,8 +14150,11 @@
       <c r="E348">
         <v>33</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -14029,8 +14170,11 @@
       <c r="E349">
         <v>21</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14046,8 +14190,11 @@
       <c r="E350">
         <v>68</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -14063,8 +14210,11 @@
       <c r="E351">
         <v>54</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -14080,8 +14230,11 @@
       <c r="E352">
         <v>33</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -14097,8 +14250,11 @@
       <c r="E353">
         <v>25</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -14114,8 +14270,11 @@
       <c r="E354">
         <v>69</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -14131,8 +14290,11 @@
       <c r="E355">
         <v>38</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -14145,8 +14307,11 @@
       <c r="E356">
         <v>58</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>41</v>
       </c>
@@ -14162,8 +14327,11 @@
       <c r="E357">
         <v>30</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -14179,8 +14347,11 @@
       <c r="E358">
         <v>70</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -14196,8 +14367,11 @@
       <c r="E359">
         <v>40</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>44</v>
       </c>
@@ -14213,8 +14387,11 @@
       <c r="E360">
         <v>38</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -14230,8 +14407,11 @@
       <c r="E361">
         <v>71</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>50</v>
       </c>
@@ -14247,8 +14427,11 @@
       <c r="E362">
         <v>48</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -14264,8 +14447,11 @@
       <c r="E363">
         <v>21</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -14281,8 +14467,11 @@
       <c r="E364">
         <v>67</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>10</v>
       </c>
@@ -14298,8 +14487,11 @@
       <c r="E365">
         <v>43</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>10</v>
       </c>
@@ -14315,8 +14507,11 @@
       <c r="E366">
         <v>30</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>10</v>
       </c>
@@ -14332,8 +14527,11 @@
       <c r="E367">
         <v>63</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -14349,8 +14547,11 @@
       <c r="E368">
         <v>68</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -14366,8 +14567,11 @@
       <c r="E369">
         <v>54</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -14383,8 +14587,11 @@
       <c r="E370">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -14400,8 +14607,11 @@
       <c r="E371">
         <v>51</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -14417,8 +14627,11 @@
       <c r="E372">
         <v>69</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>10</v>
       </c>
@@ -14434,8 +14647,11 @@
       <c r="E373">
         <v>12</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -14451,8 +14667,11 @@
       <c r="E374">
         <v>33</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -14468,8 +14687,11 @@
       <c r="E375">
         <v>26</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>29</v>
       </c>
@@ -14485,8 +14707,11 @@
       <c r="E376">
         <v>73</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -14502,8 +14727,11 @@
       <c r="E377">
         <v>54</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -14519,8 +14747,11 @@
       <c r="E378">
         <v>14</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>62</v>
       </c>
@@ -14536,8 +14767,11 @@
       <c r="E379">
         <v>54</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -14553,8 +14787,11 @@
       <c r="E380">
         <v>45</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -14570,8 +14807,11 @@
       <c r="E381">
         <v>63</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -14587,8 +14827,11 @@
       <c r="E382">
         <v>74</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -14604,8 +14847,11 @@
       <c r="E383">
         <v>52</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>29</v>
       </c>
@@ -14621,8 +14867,11 @@
       <c r="E384">
         <v>18</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -14638,8 +14887,11 @@
       <c r="E385">
         <v>34</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -14655,8 +14907,11 @@
       <c r="E386">
         <v>12</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -14672,8 +14927,11 @@
       <c r="E387">
         <v>58</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -14689,8 +14947,11 @@
       <c r="E388">
         <v>22</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -14706,8 +14967,11 @@
       <c r="E389">
         <v>63</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>63</v>
       </c>
@@ -14723,8 +14987,11 @@
       <c r="E390">
         <v>22</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -14740,8 +15007,11 @@
       <c r="E391">
         <v>24</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -14757,8 +15027,11 @@
       <c r="E392">
         <v>40</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>64</v>
       </c>
@@ -14774,8 +15047,11 @@
       <c r="E393">
         <v>57</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>32</v>
       </c>
@@ -14791,8 +15067,11 @@
       <c r="E394">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>65</v>
       </c>
@@ -14808,8 +15087,11 @@
       <c r="E395">
         <v>53</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>10</v>
       </c>
@@ -14825,8 +15107,11 @@
       <c r="E396">
         <v>61</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>10</v>
       </c>
@@ -14842,8 +15127,11 @@
       <c r="E397">
         <v>71</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>66</v>
       </c>
@@ -14859,8 +15147,11 @@
       <c r="E398">
         <v>8</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>10</v>
       </c>
@@ -14876,8 +15167,11 @@
       <c r="E399">
         <v>44</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>10</v>
       </c>
@@ -14893,8 +15187,11 @@
       <c r="E400">
         <v>67</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -14910,8 +15207,11 @@
       <c r="E401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -14927,8 +15227,11 @@
       <c r="E402">
         <v>26</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>67</v>
       </c>
@@ -14944,8 +15247,11 @@
       <c r="E403">
         <v>13</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -14961,8 +15267,11 @@
       <c r="E404">
         <v>17</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>29</v>
       </c>
@@ -14978,8 +15287,11 @@
       <c r="E405">
         <v>74</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>49</v>
       </c>
@@ -14995,8 +15307,11 @@
       <c r="E406">
         <v>29</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>60</v>
       </c>
@@ -15012,8 +15327,11 @@
       <c r="E407">
         <v>50</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -15029,8 +15347,11 @@
       <c r="E408">
         <v>50</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>29</v>
       </c>
@@ -15046,8 +15367,11 @@
       <c r="E409">
         <v>33</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -15063,8 +15387,11 @@
       <c r="E410">
         <v>55</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -15077,8 +15404,11 @@
       <c r="E411">
         <v>62</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -15094,8 +15424,11 @@
       <c r="E412">
         <v>69</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -15111,8 +15444,11 @@
       <c r="E413">
         <v>72</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -15128,8 +15464,11 @@
       <c r="E414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -15145,8 +15484,11 @@
       <c r="E415">
         <v>64</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>62</v>
       </c>
@@ -15162,8 +15504,11 @@
       <c r="E416">
         <v>28</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -15179,8 +15524,11 @@
       <c r="E417">
         <v>48</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -15196,8 +15544,11 @@
       <c r="E418">
         <v>12</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -15213,8 +15564,11 @@
       <c r="E419">
         <v>51</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -15230,8 +15584,11 @@
       <c r="E420">
         <v>32</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -15247,8 +15604,11 @@
       <c r="E421">
         <v>26</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>41</v>
       </c>
@@ -15264,8 +15624,11 @@
       <c r="E422">
         <v>57</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -15281,8 +15644,11 @@
       <c r="E423">
         <v>65</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -15298,8 +15664,11 @@
       <c r="E424">
         <v>16</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -15315,8 +15684,11 @@
       <c r="E425">
         <v>46</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -15332,8 +15704,11 @@
       <c r="E426">
         <v>26</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -15349,8 +15724,11 @@
       <c r="E427">
         <v>5</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>29</v>
       </c>
@@ -15366,8 +15744,11 @@
       <c r="E428">
         <v>39</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>10</v>
       </c>
@@ -15383,8 +15764,11 @@
       <c r="E429">
         <v>62</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -15400,8 +15784,11 @@
       <c r="E430">
         <v>7</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>10</v>
       </c>
@@ -15417,8 +15804,11 @@
       <c r="E431">
         <v>71</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>54</v>
       </c>
@@ -15434,8 +15824,11 @@
       <c r="E432">
         <v>11</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -15451,8 +15844,11 @@
       <c r="E433">
         <v>25</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>10</v>
       </c>
@@ -15468,8 +15864,11 @@
       <c r="E434">
         <v>10</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -15485,8 +15884,11 @@
       <c r="E435">
         <v>48</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>56</v>
       </c>
@@ -15502,8 +15904,11 @@
       <c r="E436">
         <v>7</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -15519,8 +15924,11 @@
       <c r="E437">
         <v>53</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -15536,8 +15944,11 @@
       <c r="E438">
         <v>62</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -15553,8 +15964,11 @@
       <c r="E439">
         <v>32</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -15570,8 +15984,11 @@
       <c r="E440">
         <v>50</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -15587,8 +16004,11 @@
       <c r="E441">
         <v>23</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -15604,8 +16024,11 @@
       <c r="E442">
         <v>41</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -15621,8 +16044,11 @@
       <c r="E443">
         <v>40</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -15638,8 +16064,11 @@
       <c r="E444">
         <v>42</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -15655,8 +16084,11 @@
       <c r="E445">
         <v>7</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -15672,8 +16104,11 @@
       <c r="E446">
         <v>37</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -15689,8 +16124,11 @@
       <c r="E447">
         <v>42</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -15706,8 +16144,11 @@
       <c r="E448">
         <v>48</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -15723,8 +16164,11 @@
       <c r="E449">
         <v>15</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -15740,8 +16184,11 @@
       <c r="E450">
         <v>62</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -15756,6 +16203,9 @@
       </c>
       <c r="E451">
         <v>68</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15768,21 +16218,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="C293" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="0.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="165.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.54296875" customWidth="1"/>
+    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="5" max="5" width="0.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15802,7 +16252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -15819,7 +16269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -15836,7 +16286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1407</v>
       </c>
@@ -15853,7 +16303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1408</v>
       </c>
@@ -15870,7 +16320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -15887,7 +16337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -15904,7 +16354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -15921,7 +16371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -15938,7 +16388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1409</v>
       </c>
@@ -15955,7 +16405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -15972,7 +16422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -15989,7 +16439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -16006,7 +16456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -16023,7 +16473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -16040,7 +16490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -16057,7 +16507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -16074,7 +16524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -16091,7 +16541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1410</v>
       </c>
@@ -16108,7 +16558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -16125,7 +16575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -16142,7 +16592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -16159,7 +16609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -16176,7 +16626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16193,7 +16643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -16210,7 +16660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -16227,7 +16677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -16244,7 +16694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -16261,7 +16711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1411</v>
       </c>
@@ -16278,7 +16728,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -16295,7 +16745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -16312,7 +16762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -16329,7 +16779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -16346,7 +16796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -16363,7 +16813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -16380,7 +16830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -16397,7 +16847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -16414,7 +16864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -16431,7 +16881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -16448,7 +16898,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -16465,7 +16915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1407</v>
       </c>
@@ -16482,7 +16932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1412</v>
       </c>
@@ -16499,7 +16949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -16516,7 +16966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -16533,7 +16983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -16550,7 +17000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -16567,7 +17017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -16584,7 +17034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -16601,7 +17051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -16618,7 +17068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -16635,7 +17085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -16652,7 +17102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -16669,7 +17119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -16686,7 +17136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -16703,7 +17153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -16720,7 +17170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -16737,7 +17187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -16754,7 +17204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -16771,7 +17221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -16788,7 +17238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1413</v>
       </c>
@@ -16805,7 +17255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16822,7 +17272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -16839,7 +17289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -16856,7 +17306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -16873,7 +17323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -16890,7 +17340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -16907,7 +17357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -16924,7 +17374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -16941,7 +17391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -16958,7 +17408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -16975,7 +17425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -16992,7 +17442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -17009,7 +17459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -17026,7 +17476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -17043,7 +17493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -17060,7 +17510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -17077,7 +17527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -17094,7 +17544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -17111,7 +17561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -17128,7 +17578,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -17145,7 +17595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -17162,7 +17612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -17179,7 +17629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -17196,7 +17646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -17213,7 +17663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -17227,7 +17677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -17244,7 +17694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -17261,7 +17711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -17278,7 +17728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -17295,7 +17745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -17312,7 +17762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -17329,7 +17779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -17346,7 +17796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -17363,7 +17813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -17380,7 +17830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -17397,7 +17847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1414</v>
       </c>
@@ -17414,7 +17864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -17431,7 +17881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -17448,7 +17898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -17465,7 +17915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -17482,7 +17932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -17499,7 +17949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -17516,7 +17966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -17533,7 +17983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -17550,7 +18000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -17567,7 +18017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -17584,7 +18034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -17601,7 +18051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -17618,7 +18068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1415</v>
       </c>
@@ -17635,7 +18085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -17652,7 +18102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -17669,7 +18119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -17686,7 +18136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1410</v>
       </c>
@@ -17703,7 +18153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -17720,7 +18170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -17737,7 +18187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -17754,7 +18204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -17771,7 +18221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -17788,7 +18238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -17805,7 +18255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -17822,7 +18272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -17839,7 +18289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -17856,7 +18306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -17873,7 +18323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -17890,7 +18340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -17907,7 +18357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -17924,7 +18374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -17941,7 +18391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -17958,7 +18408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -17975,7 +18425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -17992,7 +18442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -18009,7 +18459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -18026,7 +18476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -18043,7 +18493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -18060,7 +18510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -18077,7 +18527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -18094,7 +18544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -18111,7 +18561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -18128,7 +18578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -18145,7 +18595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -18162,7 +18612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -18179,7 +18629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -18196,7 +18646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -18213,7 +18663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -18230,7 +18680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1416</v>
       </c>
@@ -18247,7 +18697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -18264,7 +18714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -18281,7 +18731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -18298,7 +18748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -18315,7 +18765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -18332,7 +18782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -18349,7 +18799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -18366,7 +18816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -18383,7 +18833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -18400,7 +18850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -18417,7 +18867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -18434,7 +18884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>29</v>
       </c>
@@ -18451,7 +18901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -18468,7 +18918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -18485,7 +18935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -18502,7 +18952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -18519,7 +18969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -18536,7 +18986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>48</v>
       </c>
@@ -18553,7 +19003,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -18570,7 +19020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1417</v>
       </c>
@@ -18587,7 +19037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -18604,7 +19054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -18621,7 +19071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -18638,7 +19088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -18655,7 +19105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -18672,7 +19122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -18689,7 +19139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -18706,7 +19156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -18723,7 +19173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -18740,7 +19190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -18757,7 +19207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>29</v>
       </c>
@@ -18774,7 +19224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -18791,7 +19241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -18808,7 +19258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -18825,7 +19275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -18842,7 +19292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -18859,7 +19309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -18876,7 +19326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -18893,7 +19343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -18910,7 +19360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>54</v>
       </c>
@@ -18927,7 +19377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -18944,7 +19394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -18961,7 +19411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -18978,7 +19428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -18995,7 +19445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -19012,7 +19462,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -19029,7 +19479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -19046,7 +19496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -19063,7 +19513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -19080,7 +19530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -19097,7 +19547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -19114,7 +19564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -19131,7 +19581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -19148,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -19165,7 +19615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -19182,7 +19632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -19202,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -19222,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -19242,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -19262,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -19282,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -19302,7 +19752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -19322,7 +19772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -19342,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -19362,7 +19812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -19382,7 +19832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -19402,7 +19852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -19422,7 +19872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -19442,7 +19892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -19462,7 +19912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -19482,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>40</v>
       </c>
@@ -19502,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -19522,7 +19972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -19542,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -19562,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -19582,7 +20032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -19602,7 +20052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -19622,7 +20072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -19642,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -19662,7 +20112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -19682,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -19702,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -19722,7 +20172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -19742,7 +20192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -19762,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -19782,7 +20232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>54</v>
       </c>
@@ -19802,7 +20252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -19822,7 +20272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -19842,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -19862,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1418</v>
       </c>
@@ -19882,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -19902,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -19922,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1419</v>
       </c>
@@ -19942,7 +20392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -19962,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -19982,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -20002,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>37</v>
       </c>
@@ -20022,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -20042,7 +20492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -20062,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -20082,7 +20532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -20102,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -20122,7 +20572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -20142,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -20162,7 +20612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -20182,7 +20632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -20202,7 +20652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -20222,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -20242,7 +20692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -20262,7 +20712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -20282,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -20302,7 +20752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -20322,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -20342,7 +20792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -20362,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -20382,7 +20832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -20402,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -20422,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -20442,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -20462,7 +20912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -20482,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1420</v>
       </c>
@@ -20502,7 +20952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -20522,7 +20972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -20542,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -20562,7 +21012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -20582,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -20602,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -20622,7 +21072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>37</v>
       </c>
@@ -20642,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -20662,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -20682,7 +21132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -20702,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -20722,7 +21172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -20742,7 +21192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -20762,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>65</v>
       </c>
@@ -20782,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -20802,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>37</v>
       </c>
@@ -20822,7 +21272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -20842,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1421</v>
       </c>
@@ -20862,7 +21312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1422</v>
       </c>
@@ -20882,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -20902,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -20922,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -20942,7 +21392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -20962,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -20982,7 +21432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -21002,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -21022,7 +21472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>29</v>
       </c>
@@ -21042,7 +21492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -21062,7 +21512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -21082,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -21102,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>29</v>
       </c>
@@ -21122,7 +21572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -21142,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -21162,7 +21612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>41</v>
       </c>
@@ -21182,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>10</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE345C53-D2C1-4A15-AFC1-78B6611425E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E0925-F9CA-449C-BDC9-7A37E946ABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7366,7 +7366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView topLeftCell="C381" zoomScale="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
       <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
@@ -16425,8 +16425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B288" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17176,6 +17176,9 @@
       <c r="E36">
         <v>63</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Documents\Github\22-2a-cd-p1-grupo_rodrigol5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59a11b5f20fd1daf/Documentos/Cdados/Projeto 1/22-2a-cd-p1-grupo_rodrigol5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF064DB-15FB-42A0-9F94-450DF9A1C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5FF064DB-15FB-42A0-9F94-450DF9A1C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B773E08E-E5A0-4E6A-B0A6-98DC6DB190B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="2303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="2304">
   <si>
     <t>Categoria</t>
   </si>
@@ -6942,6 +6942,9 @@
   </si>
   <si>
     <t>29/08/2022 - 17:09</t>
+  </si>
+  <si>
+    <t>Chute</t>
   </si>
 </sst>
 </file>
@@ -6973,7 +6976,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -7001,15 +7004,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -7022,19 +7016,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7053,7 +7045,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7379,20 +7371,20 @@
       <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
-    <col min="3" max="3" width="119.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7411,12 +7403,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7436,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7476,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7496,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7516,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7536,7 +7527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -7556,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7576,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -7596,7 +7587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -7616,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -7636,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7656,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -7696,7 +7687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -7716,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7736,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7756,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7776,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -7796,7 +7787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -7816,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7836,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -7856,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -7876,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -7896,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -7916,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -7936,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7956,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -7976,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7996,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +8007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -8036,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -8056,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -8076,7 +8067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -8096,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -8116,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -8136,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -8156,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -8176,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -8196,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -8216,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -8236,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -8276,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -8296,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8316,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -8336,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -8356,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -8376,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8396,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -8416,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -8436,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -8456,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -8476,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -8496,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -8516,7 +8507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -8536,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -8556,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8576,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -8596,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -8616,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -8636,7 +8627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -8656,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -8676,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -8696,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -8716,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -8736,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -8756,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -8776,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -8796,7 +8787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -8816,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -8836,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -8856,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -8876,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -8896,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -8916,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -8936,7 +8927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -8956,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -8976,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -8996,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -9016,7 +9007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -9036,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -9056,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -9076,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -9096,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -9116,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -9136,7 +9127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -9156,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -9176,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -9196,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9216,7 +9207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -9236,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -9256,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9276,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -9296,7 +9287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -9316,7 +9307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -9336,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9356,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -9376,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>327</v>
       </c>
@@ -9396,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>331</v>
       </c>
@@ -9416,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -9436,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9456,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9476,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -9496,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -9516,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -9536,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -9556,7 +9547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -9576,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -9596,7 +9587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -9616,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -9636,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -9656,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -9676,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -9696,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -9716,7 +9707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -9736,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>383</v>
       </c>
@@ -9756,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -9776,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>390</v>
       </c>
@@ -9796,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>394</v>
       </c>
@@ -9816,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -9836,7 +9827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -9856,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>404</v>
       </c>
@@ -9876,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -9896,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -9916,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9936,7 +9927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>417</v>
       </c>
@@ -9956,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>317</v>
       </c>
@@ -9976,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -9996,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -10016,7 +10007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -10036,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -10056,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -10076,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -10096,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -10116,7 +10107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>344</v>
       </c>
@@ -10136,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>447</v>
       </c>
@@ -10156,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -10176,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -10196,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -10216,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -10236,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -10256,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -10276,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>233</v>
       </c>
@@ -10296,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -10316,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>404</v>
       </c>
@@ -10336,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10356,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10376,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>483</v>
       </c>
@@ -10396,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10416,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10436,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -10456,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>483</v>
       </c>
@@ -10476,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10496,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -10516,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -10536,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10556,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10576,7 +10567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -10596,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>85</v>
       </c>
@@ -10616,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -10636,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -10656,7 +10647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -10676,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -10696,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -10716,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -10736,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -10756,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>447</v>
       </c>
@@ -10776,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -10796,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -10816,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>59</v>
       </c>
@@ -10836,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -10856,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>233</v>
       </c>
@@ -10876,7 +10867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -10896,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>561</v>
       </c>
@@ -10916,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>59</v>
       </c>
@@ -10936,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>568</v>
       </c>
@@ -10956,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -10976,7 +10967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -10996,7 +10987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>578</v>
       </c>
@@ -11016,7 +11007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -11036,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>585</v>
       </c>
@@ -11056,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -11076,7 +11067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -11096,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -11116,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -11136,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -11156,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>404</v>
       </c>
@@ -11176,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -11196,7 +11187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>233</v>
       </c>
@@ -11216,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -11236,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -11256,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>30</v>
       </c>
@@ -11276,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -11296,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -11316,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>117</v>
       </c>
@@ -11336,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>404</v>
       </c>
@@ -11356,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -11376,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -11396,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -11416,7 +11407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -11436,7 +11427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -11456,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11476,7 +11467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -11496,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -11516,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>658</v>
       </c>
@@ -11536,7 +11527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -11556,7 +11547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>665</v>
       </c>
@@ -11576,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>669</v>
       </c>
@@ -11596,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -11616,7 +11607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>55</v>
       </c>
@@ -11636,7 +11627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -11656,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -11676,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -11696,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -11716,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>568</v>
       </c>
@@ -11736,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -11756,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -11776,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>59</v>
       </c>
@@ -11796,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -11816,7 +11807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>706</v>
       </c>
@@ -11836,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -11856,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>59</v>
       </c>
@@ -11876,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11896,7 +11887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>59</v>
       </c>
@@ -11916,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -11936,7 +11927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -11956,7 +11947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -11976,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -11996,7 +11987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -12016,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>737</v>
       </c>
@@ -12036,7 +12027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -12056,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -12076,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -12096,7 +12087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -12116,7 +12107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -12136,7 +12127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>85</v>
       </c>
@@ -12156,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -12176,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -12196,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -12216,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -12236,7 +12227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -12256,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -12276,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>776</v>
       </c>
@@ -12296,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -12316,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -12336,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -12356,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -12376,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -12396,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -12416,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -12436,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -12456,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12476,7 +12467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>807</v>
       </c>
@@ -12496,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -12516,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -12536,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -12556,7 +12547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12576,7 +12567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -12596,7 +12587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -12616,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>447</v>
       </c>
@@ -12636,7 +12627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -12656,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>447</v>
       </c>
@@ -12676,7 +12667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -12696,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -12716,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>447</v>
       </c>
@@ -12736,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>847</v>
       </c>
@@ -12756,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -12776,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>22</v>
       </c>
@@ -12796,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>22</v>
       </c>
@@ -12816,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -12836,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>863</v>
       </c>
@@ -12856,7 +12847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>404</v>
       </c>
@@ -12876,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -12896,7 +12887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>18</v>
       </c>
@@ -12916,7 +12907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -12936,7 +12927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12956,7 +12947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -12976,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>30</v>
       </c>
@@ -12996,7 +12987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>22</v>
       </c>
@@ -13016,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -13036,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -13056,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>22</v>
       </c>
@@ -13076,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -13096,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>447</v>
       </c>
@@ -13116,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>59</v>
       </c>
@@ -13136,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>22</v>
       </c>
@@ -13156,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>233</v>
       </c>
@@ -13176,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>233</v>
       </c>
@@ -13196,7 +13187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>55</v>
       </c>
@@ -13216,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -13236,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>22</v>
       </c>
@@ -13256,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -13276,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>55</v>
       </c>
@@ -13296,7 +13287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -13316,7 +13307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -13336,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>939</v>
       </c>
@@ -13356,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -13376,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>22</v>
       </c>
@@ -13396,7 +13387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>258</v>
       </c>
@@ -13416,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>59</v>
       </c>
@@ -13436,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -13456,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -13476,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>59</v>
       </c>
@@ -13496,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -13516,7 +13507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -13536,7 +13527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -13556,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -13576,7 +13567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>22</v>
       </c>
@@ -13596,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -13616,7 +13607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>982</v>
       </c>
@@ -13636,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>167</v>
       </c>
@@ -13656,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>22</v>
       </c>
@@ -13676,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>233</v>
       </c>
@@ -13696,7 +13687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -13716,7 +13707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>998</v>
       </c>
@@ -13736,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -13756,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>233</v>
       </c>
@@ -13776,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -13796,7 +13787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>30</v>
       </c>
@@ -13816,7 +13807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>132</v>
       </c>
@@ -13836,7 +13827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>30</v>
       </c>
@@ -13856,7 +13847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -13876,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -13896,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -13916,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>18</v>
       </c>
@@ -13936,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>447</v>
       </c>
@@ -13956,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -13976,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -13996,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -14016,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>22</v>
       </c>
@@ -14036,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -14056,7 +14047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>22</v>
       </c>
@@ -14076,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>331</v>
       </c>
@@ -14096,7 +14087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -14116,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>658</v>
       </c>
@@ -14136,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>22</v>
       </c>
@@ -14156,7 +14147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>283</v>
       </c>
@@ -14176,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -14196,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -14216,7 +14207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>22</v>
       </c>
@@ -14236,7 +14227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -14256,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -14276,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>447</v>
       </c>
@@ -14296,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>233</v>
       </c>
@@ -14316,7 +14307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>59</v>
       </c>
@@ -14336,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -14356,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -14376,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14396,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -14416,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>417</v>
       </c>
@@ -14436,7 +14427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>37</v>
       </c>
@@ -14456,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1110</v>
       </c>
@@ -14476,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>22</v>
       </c>
@@ -14496,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>26</v>
       </c>
@@ -14513,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>447</v>
       </c>
@@ -14533,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -14553,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>22</v>
       </c>
@@ -14573,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>568</v>
       </c>
@@ -14593,7 +14584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>37</v>
       </c>
@@ -14613,7 +14604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>706</v>
       </c>
@@ -14633,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -14653,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>22</v>
       </c>
@@ -14673,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>22</v>
       </c>
@@ -14693,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>22</v>
       </c>
@@ -14713,7 +14704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>22</v>
       </c>
@@ -14733,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -14753,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1155</v>
       </c>
@@ -14773,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>37</v>
       </c>
@@ -14793,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1162</v>
       </c>
@@ -14813,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -14833,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>22</v>
       </c>
@@ -14853,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -14873,7 +14864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>30</v>
       </c>
@@ -14893,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>233</v>
       </c>
@@ -14913,7 +14904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>59</v>
       </c>
@@ -14933,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>404</v>
       </c>
@@ -14953,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1187</v>
       </c>
@@ -14973,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>55</v>
       </c>
@@ -14993,7 +14984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -15013,7 +15004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>390</v>
       </c>
@@ -15033,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -15053,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>233</v>
       </c>
@@ -15073,7 +15064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -15093,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>22</v>
       </c>
@@ -15113,7 +15104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>59</v>
       </c>
@@ -15133,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -15153,7 +15144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>55</v>
       </c>
@@ -15173,7 +15164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1221</v>
       </c>
@@ -15193,7 +15184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>30</v>
       </c>
@@ -15213,7 +15204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>117</v>
       </c>
@@ -15233,7 +15224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1231</v>
       </c>
@@ -15253,7 +15244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>317</v>
       </c>
@@ -15273,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1238</v>
       </c>
@@ -15293,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>22</v>
       </c>
@@ -15313,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>22</v>
       </c>
@@ -15333,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1248</v>
       </c>
@@ -15353,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>22</v>
       </c>
@@ -15373,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>22</v>
       </c>
@@ -15393,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>30</v>
       </c>
@@ -15413,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>22</v>
       </c>
@@ -15433,7 +15424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1264</v>
       </c>
@@ -15453,7 +15444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>45</v>
       </c>
@@ -15473,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>233</v>
       </c>
@@ -15493,7 +15484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>669</v>
       </c>
@@ -15513,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1155</v>
       </c>
@@ -15533,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>85</v>
       </c>
@@ -15553,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>233</v>
       </c>
@@ -15573,7 +15564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>30</v>
       </c>
@@ -15593,7 +15584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>26</v>
       </c>
@@ -15610,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>30</v>
       </c>
@@ -15630,7 +15621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>59</v>
       </c>
@@ -15650,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -15670,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>18</v>
       </c>
@@ -15690,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1187</v>
       </c>
@@ -15710,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>59</v>
       </c>
@@ -15730,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>22</v>
       </c>
@@ -15750,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>22</v>
       </c>
@@ -15770,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>30</v>
       </c>
@@ -15790,7 +15781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>59</v>
       </c>
@@ -15810,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>447</v>
       </c>
@@ -15830,7 +15821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -15850,7 +15841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>30</v>
       </c>
@@ -15870,7 +15861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>85</v>
       </c>
@@ -15890,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>22</v>
       </c>
@@ -15910,7 +15901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>37</v>
       </c>
@@ -15930,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>233</v>
       </c>
@@ -15950,7 +15941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -15970,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>37</v>
       </c>
@@ -15990,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>22</v>
       </c>
@@ -16010,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>847</v>
       </c>
@@ -16030,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>10</v>
       </c>
@@ -16050,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>22</v>
       </c>
@@ -16070,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>18</v>
       </c>
@@ -16090,7 +16081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>939</v>
       </c>
@@ -16110,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>22</v>
       </c>
@@ -16130,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>37</v>
       </c>
@@ -16150,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -16170,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>30</v>
       </c>
@@ -16190,7 +16181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>26</v>
       </c>
@@ -16210,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>18</v>
       </c>
@@ -16230,7 +16221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -16250,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>30</v>
       </c>
@@ -16270,7 +16261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -16290,7 +16281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>447</v>
       </c>
@@ -16310,7 +16301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>37</v>
       </c>
@@ -16330,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>22</v>
       </c>
@@ -16350,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>37</v>
       </c>
@@ -16370,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>26</v>
       </c>
@@ -16390,7 +16381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>18</v>
       </c>
@@ -16421,23 +16412,23 @@
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165" customWidth="1"/>
-    <col min="4" max="4" width="2.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16456,12 +16447,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -16481,7 +16474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -16501,7 +16494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1413</v>
       </c>
@@ -16521,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1417</v>
       </c>
@@ -16541,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -16561,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -16581,7 +16574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>561</v>
       </c>
@@ -16601,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -16621,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1433</v>
       </c>
@@ -16641,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -16661,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -16681,7 +16674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -16701,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -16721,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -16741,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -16761,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -16781,7 +16774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -16801,7 +16794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1461</v>
       </c>
@@ -16821,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -16841,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -16861,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -16881,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1238</v>
       </c>
@@ -16901,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16921,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -16941,7 +16934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -16961,7 +16954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -16981,7 +16974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -17001,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1492</v>
       </c>
@@ -17021,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -17041,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -17061,7 +17054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -17081,7 +17074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -17101,7 +17094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -17121,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -17141,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -17161,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -17181,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -17201,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -17221,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>447</v>
       </c>
@@ -17241,7 +17234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1413</v>
       </c>
@@ -17261,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1531</v>
       </c>
@@ -17281,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -17301,7 +17294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -17321,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -17341,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -17361,7 +17354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -17381,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -17401,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -17421,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -17441,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -17461,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -17481,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>317</v>
       </c>
@@ -17501,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -17521,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -17541,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -17561,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -17581,7 +17574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -17601,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -17621,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1585</v>
       </c>
@@ -17641,7 +17634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -17661,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -17681,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17701,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -17721,7 +17714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -17741,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>776</v>
       </c>
@@ -17761,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -17781,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -17801,7 +17794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -17821,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -17841,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>317</v>
       </c>
@@ -17861,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -17881,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -17901,7 +17894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -17921,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -17941,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -17961,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -17981,7 +17974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -18001,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -18021,7 +18014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -18041,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -18061,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -18081,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -18101,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -18121,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>568</v>
       </c>
@@ -18138,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -18158,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -18178,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -18198,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -18218,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -18238,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -18258,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -18278,7 +18271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -18298,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -18318,7 +18311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -18338,7 +18331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1687</v>
       </c>
@@ -18358,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -18378,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -18398,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -18418,7 +18411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -18438,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -18458,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>55</v>
       </c>
@@ -18478,7 +18471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -18498,7 +18491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -18518,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -18538,7 +18531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -18558,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -18578,7 +18571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -18598,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1727</v>
       </c>
@@ -18618,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>447</v>
       </c>
@@ -18638,7 +18631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -18658,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -18678,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1461</v>
       </c>
@@ -18698,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -18718,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -18738,7 +18731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -18758,7 +18751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -18778,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -18798,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -18818,7 +18811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -18838,7 +18831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -18858,7 +18851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -18878,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>447</v>
       </c>
@@ -18898,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -18918,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -18938,7 +18931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -18958,7 +18951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -18978,7 +18971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -18998,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -19018,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -19038,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>55</v>
       </c>
@@ -19058,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -19078,7 +19071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -19098,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -19118,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>233</v>
       </c>
@@ -19138,7 +19131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -19158,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -19178,7 +19171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -19198,7 +19191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -19218,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -19238,7 +19231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -19258,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -19278,7 +19271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -19298,7 +19291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -19318,7 +19311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1834</v>
       </c>
@@ -19338,7 +19331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>89</v>
       </c>
@@ -19358,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -19378,7 +19371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -19398,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -19418,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -19438,7 +19431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -19458,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -19478,7 +19471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -19498,7 +19491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -19518,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -19538,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -19558,7 +19551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>233</v>
       </c>
@@ -19578,7 +19571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -19598,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -19618,7 +19611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>85</v>
       </c>
@@ -19638,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -19658,7 +19651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -19678,7 +19671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>665</v>
       </c>
@@ -19698,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -19718,7 +19711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1894</v>
       </c>
@@ -19738,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -19758,7 +19751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>233</v>
       </c>
@@ -19778,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -19798,7 +19791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -19818,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>447</v>
       </c>
@@ -19838,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -19858,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -19878,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -19898,7 +19891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -19918,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>568</v>
       </c>
@@ -19938,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>233</v>
       </c>
@@ -19958,7 +19951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -19978,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -19998,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -20018,7 +20011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -20038,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -20058,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -20078,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -20098,7 +20091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>447</v>
       </c>
@@ -20118,7 +20111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>847</v>
       </c>
@@ -20138,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -20158,7 +20151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -20178,7 +20171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -20198,7 +20191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -20218,7 +20211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>847</v>
       </c>
@@ -20238,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -20258,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -20278,7 +20271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -20298,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -20318,7 +20311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -20338,7 +20331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -20358,7 +20351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -20378,7 +20371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>59</v>
       </c>
@@ -20398,7 +20391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>447</v>
       </c>
@@ -20418,7 +20411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -20438,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -20458,7 +20451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -20478,7 +20471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -20498,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -20518,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -20538,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -20558,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -20578,7 +20571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>669</v>
       </c>
@@ -20598,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -20618,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -20638,7 +20631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -20658,7 +20651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -20678,7 +20671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -20698,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -20718,7 +20711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>85</v>
       </c>
@@ -20738,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>417</v>
       </c>
@@ -20758,7 +20751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>59</v>
       </c>
@@ -20778,7 +20771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -20798,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -20818,7 +20811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>317</v>
       </c>
@@ -20838,7 +20831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -20858,7 +20851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -20878,7 +20871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>383</v>
       </c>
@@ -20898,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>317</v>
       </c>
@@ -20918,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -20938,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>317</v>
       </c>
@@ -20958,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -20978,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>59</v>
       </c>
@@ -20998,7 +20991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -21018,7 +21011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -21038,7 +21031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>847</v>
       </c>
@@ -21058,7 +21051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -21078,7 +21071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -21098,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -21118,7 +21111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>2103</v>
       </c>
@@ -21138,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -21158,7 +21151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -21178,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>2113</v>
       </c>
@@ -21198,7 +21191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -21218,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>847</v>
       </c>
@@ -21238,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>214</v>
       </c>
@@ -21258,7 +21251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>390</v>
       </c>
@@ -21278,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -21298,7 +21291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>41</v>
       </c>
@@ -21318,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>55</v>
       </c>
@@ -21338,7 +21331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -21358,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -21378,7 +21371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -21398,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>233</v>
       </c>
@@ -21418,7 +21411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -21438,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>59</v>
       </c>
@@ -21458,7 +21451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -21478,7 +21471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -21498,7 +21491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -21518,7 +21511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -21538,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -21558,7 +21551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>59</v>
       </c>
@@ -21578,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -21598,7 +21591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -21618,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -21638,7 +21631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -21658,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -21678,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -21698,7 +21691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -21718,7 +21711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -21738,7 +21731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>2196</v>
       </c>
@@ -21758,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>26</v>
       </c>
@@ -21778,7 +21771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -21798,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -21818,7 +21811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>59</v>
       </c>
@@ -21838,7 +21831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -21858,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -21878,7 +21871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>390</v>
       </c>
@@ -21898,7 +21891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>59</v>
       </c>
@@ -21918,7 +21911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>18</v>
       </c>
@@ -21938,7 +21931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>22</v>
       </c>
@@ -21958,7 +21951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -21978,7 +21971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>233</v>
       </c>
@@ -21998,7 +21991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>85</v>
       </c>
@@ -22018,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1238</v>
       </c>
@@ -22038,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>258</v>
       </c>
@@ -22058,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>390</v>
       </c>
@@ -22078,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>37</v>
       </c>
@@ -22098,7 +22091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>2249</v>
       </c>
@@ -22118,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>2253</v>
       </c>
@@ -22138,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -22158,7 +22151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -22178,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>233</v>
       </c>
@@ -22198,7 +22191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>22</v>
       </c>
@@ -22218,7 +22211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>55</v>
       </c>
@@ -22238,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>22</v>
       </c>
@@ -22258,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -22278,7 +22271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>233</v>
       </c>
@@ -22298,7 +22291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -22318,7 +22311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>22</v>
       </c>
@@ -22338,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>59</v>
       </c>
@@ -22358,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>233</v>
       </c>
@@ -22378,7 +22371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>85</v>
       </c>
@@ -22398,7 +22391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>233</v>
       </c>
@@ -22418,7 +22411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>447</v>
       </c>
@@ -22438,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>22</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59a11b5f20fd1daf/Documentos/Cdados/Projeto 1/22-2a-cd-p1-grupo_rodrigol5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5FF064DB-15FB-42A0-9F94-450DF9A1C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B773E08E-E5A0-4E6A-B0A6-98DC6DB190B8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5FF064DB-15FB-42A0-9F94-450DF9A1C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59D470D8-8EA7-40AB-96C7-1A1BE9D1D055}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="2303">
   <si>
     <t>Categoria</t>
   </si>
@@ -6942,9 +6942,6 @@
   </si>
   <si>
     <t>29/08/2022 - 17:09</t>
-  </si>
-  <si>
-    <t>Chute</t>
   </si>
 </sst>
 </file>
@@ -16412,7 +16409,7 @@
   <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16447,9 +16444,6 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2303</v>
-      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59a11b5f20fd1daf/Documentos/Cdados/Projeto 1/22-2a-cd-p1-grupo_rodrigol5/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper Eng Comp 2 Semestre\codesing de apps\22-2a-cd-p1-grupo_rodrigol5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5FF064DB-15FB-42A0-9F94-450DF9A1C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59D470D8-8EA7-40AB-96C7-1A1BE9D1D055}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99735F7-E192-4091-BEFE-8D96162A2C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -7364,24 +7362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="C93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
-    <col min="3" max="3" width="119.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7404,7 +7402,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7444,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7504,7 +7502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7524,7 +7522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7564,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -7584,7 +7582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -7624,7 +7622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7664,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -7684,7 +7682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7724,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -7804,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7824,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -7884,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -7904,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -7924,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7944,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -7964,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -8004,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -8044,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -8084,7 +8082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -8104,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -8144,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -8204,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -8224,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8244,7 +8242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -8264,7 +8262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -8284,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8304,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -8324,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -8344,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8384,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -8404,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -8424,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -8444,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -8484,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -8524,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8564,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -8604,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -8624,7 +8622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -8644,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>214</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -8684,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -8704,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -8724,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -8744,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -8784,7 +8782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -8824,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -8844,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -8864,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -8884,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -8904,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -8924,7 +8922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -8944,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -8964,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -8984,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -9004,7 +9002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -9024,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -9044,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -9064,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -9104,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -9124,7 +9122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -9164,7 +9162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9204,7 +9202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -9244,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9264,7 +9262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -9284,7 +9282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -9304,7 +9302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -9324,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9344,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -9364,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>327</v>
       </c>
@@ -9384,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>331</v>
       </c>
@@ -9404,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9464,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -9484,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -9504,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -9544,7 +9542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -9564,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -9584,7 +9582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -9604,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -9644,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -9684,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -9704,7 +9702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>383</v>
       </c>
@@ -9744,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -9764,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>390</v>
       </c>
@@ -9784,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>394</v>
       </c>
@@ -9804,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -9824,7 +9822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -9844,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>404</v>
       </c>
@@ -9864,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -9884,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -9904,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>59</v>
       </c>
@@ -9924,7 +9922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>417</v>
       </c>
@@ -9944,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>317</v>
       </c>
@@ -9964,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -9984,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -10004,7 +10002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -10024,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -10044,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -10064,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -10084,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -10104,7 +10102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>344</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>447</v>
       </c>
@@ -10144,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -10164,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -10184,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -10204,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -10224,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -10244,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -10264,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>233</v>
       </c>
@@ -10284,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -10304,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>404</v>
       </c>
@@ -10324,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -10344,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10364,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>483</v>
       </c>
@@ -10384,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10404,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -10424,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -10444,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>483</v>
       </c>
@@ -10464,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -10484,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -10524,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -10564,7 +10562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -10584,7 +10582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>85</v>
       </c>
@@ -10604,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -10624,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -10664,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>317</v>
       </c>
@@ -10704,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -10724,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -10744,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>447</v>
       </c>
@@ -10764,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -10784,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -10804,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>59</v>
       </c>
@@ -10824,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -10844,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>233</v>
       </c>
@@ -10864,7 +10862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>561</v>
       </c>
@@ -10904,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>59</v>
       </c>
@@ -10924,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>568</v>
       </c>
@@ -10944,7 +10942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -10964,7 +10962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -10984,7 +10982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>578</v>
       </c>
@@ -11004,7 +11002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -11024,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>585</v>
       </c>
@@ -11044,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -11064,7 +11062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -11084,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -11104,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -11124,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -11144,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>404</v>
       </c>
@@ -11164,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>233</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -11224,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -11244,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>30</v>
       </c>
@@ -11264,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -11284,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -11304,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>117</v>
       </c>
@@ -11324,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>404</v>
       </c>
@@ -11344,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -11364,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -11384,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -11404,7 +11402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -11424,7 +11422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -11444,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11464,7 +11462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -11484,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -11504,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>658</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -11544,7 +11542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>665</v>
       </c>
@@ -11564,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>669</v>
       </c>
@@ -11584,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -11604,7 +11602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>55</v>
       </c>
@@ -11624,7 +11622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -11644,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -11704,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>568</v>
       </c>
@@ -11724,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -11744,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -11764,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>59</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -11804,7 +11802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>706</v>
       </c>
@@ -11824,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -11844,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>59</v>
       </c>
@@ -11864,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11884,7 +11882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>59</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -11924,7 +11922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -11944,7 +11942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -11964,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -11984,7 +11982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -12004,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>737</v>
       </c>
@@ -12024,7 +12022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -12044,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -12064,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -12084,7 +12082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -12104,7 +12102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -12124,7 +12122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>85</v>
       </c>
@@ -12144,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -12164,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -12184,7 +12182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -12204,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -12264,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>776</v>
       </c>
@@ -12284,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -12304,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -12344,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -12364,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -12384,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -12404,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -12424,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -12444,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12464,7 +12462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>807</v>
       </c>
@@ -12484,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -12504,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -12524,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>45</v>
       </c>
@@ -12544,7 +12542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12564,7 +12562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -12584,7 +12582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -12604,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>447</v>
       </c>
@@ -12624,7 +12622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -12644,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>447</v>
       </c>
@@ -12664,7 +12662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -12684,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -12704,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>447</v>
       </c>
@@ -12724,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>847</v>
       </c>
@@ -12744,7 +12742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -12764,7 +12762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>22</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>22</v>
       </c>
@@ -12804,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -12824,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>863</v>
       </c>
@@ -12844,7 +12842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>404</v>
       </c>
@@ -12864,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -12884,7 +12882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>18</v>
       </c>
@@ -12904,7 +12902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -12944,7 +12942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -12964,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>30</v>
       </c>
@@ -12984,7 +12982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>22</v>
       </c>
@@ -13004,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -13024,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -13044,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>22</v>
       </c>
@@ -13064,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -13084,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>447</v>
       </c>
@@ -13104,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>59</v>
       </c>
@@ -13124,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>22</v>
       </c>
@@ -13144,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>233</v>
       </c>
@@ -13164,7 +13162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>233</v>
       </c>
@@ -13184,7 +13182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>55</v>
       </c>
@@ -13204,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -13224,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>22</v>
       </c>
@@ -13244,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -13264,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>55</v>
       </c>
@@ -13284,7 +13282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -13304,7 +13302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -13324,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>939</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -13364,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>22</v>
       </c>
@@ -13384,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>258</v>
       </c>
@@ -13404,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>59</v>
       </c>
@@ -13424,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -13444,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -13464,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>59</v>
       </c>
@@ -13484,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -13504,7 +13502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -13524,7 +13522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -13544,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -13564,7 +13562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>22</v>
       </c>
@@ -13584,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -13604,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>982</v>
       </c>
@@ -13624,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>167</v>
       </c>
@@ -13644,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>22</v>
       </c>
@@ -13664,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>233</v>
       </c>
@@ -13684,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -13704,7 +13702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>998</v>
       </c>
@@ -13724,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -13744,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>233</v>
       </c>
@@ -13764,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -13784,7 +13782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>30</v>
       </c>
@@ -13804,7 +13802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>132</v>
       </c>
@@ -13824,7 +13822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>30</v>
       </c>
@@ -13844,7 +13842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>59</v>
       </c>
@@ -13864,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>22</v>
       </c>
@@ -13884,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>22</v>
       </c>
@@ -13904,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>18</v>
       </c>
@@ -13924,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>447</v>
       </c>
@@ -13944,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -13964,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -13984,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>22</v>
       </c>
@@ -14004,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>22</v>
       </c>
@@ -14024,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -14044,7 +14042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>22</v>
       </c>
@@ -14064,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>331</v>
       </c>
@@ -14084,7 +14082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>22</v>
       </c>
@@ -14104,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>658</v>
       </c>
@@ -14124,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>22</v>
       </c>
@@ -14144,7 +14142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>283</v>
       </c>
@@ -14164,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -14184,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -14204,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>22</v>
       </c>
@@ -14224,7 +14222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>22</v>
       </c>
@@ -14244,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -14264,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>447</v>
       </c>
@@ -14284,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>233</v>
       </c>
@@ -14304,7 +14302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>59</v>
       </c>
@@ -14324,7 +14322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -14344,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -14384,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -14404,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>417</v>
       </c>
@@ -14424,7 +14422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>37</v>
       </c>
@@ -14444,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1110</v>
       </c>
@@ -14464,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>22</v>
       </c>
@@ -14484,7 +14482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>26</v>
       </c>
@@ -14501,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>447</v>
       </c>
@@ -14521,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -14541,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>22</v>
       </c>
@@ -14561,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>568</v>
       </c>
@@ -14581,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>37</v>
       </c>
@@ -14601,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>706</v>
       </c>
@@ -14621,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>37</v>
       </c>
@@ -14641,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>22</v>
       </c>
@@ -14661,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>22</v>
       </c>
@@ -14681,7 +14679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>22</v>
       </c>
@@ -14701,7 +14699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>22</v>
       </c>
@@ -14721,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -14741,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1155</v>
       </c>
@@ -14761,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>37</v>
       </c>
@@ -14781,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1162</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -14821,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>22</v>
       </c>
@@ -14841,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -14861,7 +14859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>30</v>
       </c>
@@ -14881,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>233</v>
       </c>
@@ -14901,7 +14899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>59</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>404</v>
       </c>
@@ -14941,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1187</v>
       </c>
@@ -14961,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>55</v>
       </c>
@@ -14981,7 +14979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -15001,7 +14999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>390</v>
       </c>
@@ -15021,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -15041,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>233</v>
       </c>
@@ -15061,7 +15059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -15081,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>22</v>
       </c>
@@ -15101,7 +15099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>59</v>
       </c>
@@ -15121,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -15141,7 +15139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>55</v>
       </c>
@@ -15161,7 +15159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1221</v>
       </c>
@@ -15181,7 +15179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>30</v>
       </c>
@@ -15201,7 +15199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>117</v>
       </c>
@@ -15221,7 +15219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1231</v>
       </c>
@@ -15241,7 +15239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>317</v>
       </c>
@@ -15261,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1238</v>
       </c>
@@ -15281,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>22</v>
       </c>
@@ -15301,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>22</v>
       </c>
@@ -15321,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1248</v>
       </c>
@@ -15341,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>22</v>
       </c>
@@ -15361,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>22</v>
       </c>
@@ -15381,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>30</v>
       </c>
@@ -15401,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>22</v>
       </c>
@@ -15421,7 +15419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1264</v>
       </c>
@@ -15441,7 +15439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>45</v>
       </c>
@@ -15461,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>233</v>
       </c>
@@ -15481,7 +15479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>669</v>
       </c>
@@ -15501,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1155</v>
       </c>
@@ -15521,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>85</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>233</v>
       </c>
@@ -15561,7 +15559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>30</v>
       </c>
@@ -15581,7 +15579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>26</v>
       </c>
@@ -15598,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>30</v>
       </c>
@@ -15618,7 +15616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>59</v>
       </c>
@@ -15638,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -15658,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>18</v>
       </c>
@@ -15678,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1187</v>
       </c>
@@ -15698,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>59</v>
       </c>
@@ -15718,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>22</v>
       </c>
@@ -15738,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>22</v>
       </c>
@@ -15758,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>30</v>
       </c>
@@ -15778,7 +15776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>59</v>
       </c>
@@ -15798,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>447</v>
       </c>
@@ -15818,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -15838,7 +15836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>30</v>
       </c>
@@ -15858,7 +15856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>85</v>
       </c>
@@ -15878,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>22</v>
       </c>
@@ -15898,7 +15896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>37</v>
       </c>
@@ -15918,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>233</v>
       </c>
@@ -15938,7 +15936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>22</v>
       </c>
@@ -15958,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>37</v>
       </c>
@@ -15978,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>22</v>
       </c>
@@ -15998,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>847</v>
       </c>
@@ -16018,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>10</v>
       </c>
@@ -16038,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>22</v>
       </c>
@@ -16058,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>18</v>
       </c>
@@ -16078,7 +16076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>939</v>
       </c>
@@ -16098,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>22</v>
       </c>
@@ -16118,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>37</v>
       </c>
@@ -16138,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -16158,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>30</v>
       </c>
@@ -16178,7 +16176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>26</v>
       </c>
@@ -16198,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>18</v>
       </c>
@@ -16218,7 +16216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -16238,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>30</v>
       </c>
@@ -16258,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -16278,7 +16276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>447</v>
       </c>
@@ -16298,7 +16296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>37</v>
       </c>
@@ -16318,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>22</v>
       </c>
@@ -16338,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>37</v>
       </c>
@@ -16358,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>26</v>
       </c>
@@ -16378,7 +16376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>18</v>
       </c>
@@ -16408,24 +16406,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16448,7 +16446,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -16468,7 +16466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -16488,7 +16486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1413</v>
       </c>
@@ -16508,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1417</v>
       </c>
@@ -16528,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -16548,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -16568,7 +16566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>561</v>
       </c>
@@ -16588,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -16608,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1433</v>
       </c>
@@ -16628,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -16648,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -16668,7 +16666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -16688,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -16708,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -16728,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -16748,7 +16746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -16768,7 +16766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -16788,7 +16786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1461</v>
       </c>
@@ -16808,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -16828,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -16848,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -16868,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1238</v>
       </c>
@@ -16888,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -16908,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -16948,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -16968,7 +16966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -16988,7 +16986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1492</v>
       </c>
@@ -17008,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -17028,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -17048,7 +17046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -17068,7 +17066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -17088,7 +17086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -17108,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -17128,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -17148,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -17168,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -17188,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -17208,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>447</v>
       </c>
@@ -17228,7 +17226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1413</v>
       </c>
@@ -17248,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1531</v>
       </c>
@@ -17268,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -17288,7 +17286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -17308,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -17328,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -17348,7 +17346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -17368,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -17388,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -17408,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -17428,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -17448,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -17468,7 +17466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>317</v>
       </c>
@@ -17488,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -17508,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -17528,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -17548,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -17568,7 +17566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -17588,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -17608,7 +17606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1585</v>
       </c>
@@ -17628,7 +17626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -17648,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -17668,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17688,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -17708,7 +17706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -17728,7 +17726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>776</v>
       </c>
@@ -17748,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -17768,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -17788,7 +17786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -17808,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -17828,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>317</v>
       </c>
@@ -17848,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -17868,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -17888,7 +17886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -17908,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -17928,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -17948,7 +17946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -17968,7 +17966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -17988,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -18008,7 +18006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -18028,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -18048,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -18068,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -18088,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>847</v>
       </c>
@@ -18108,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>568</v>
       </c>
@@ -18125,7 +18123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -18145,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -18165,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -18185,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -18205,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -18225,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -18245,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -18265,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -18285,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -18305,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -18325,7 +18323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1687</v>
       </c>
@@ -18345,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -18365,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -18385,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -18405,7 +18403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -18425,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -18445,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>55</v>
       </c>
@@ -18465,7 +18463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -18485,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -18505,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -18525,7 +18523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -18545,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -18565,7 +18563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -18585,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1727</v>
       </c>
@@ -18605,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>447</v>
       </c>
@@ -18625,7 +18623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -18645,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -18665,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1461</v>
       </c>
@@ -18685,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -18705,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -18725,7 +18723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -18745,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -18765,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>59</v>
       </c>
@@ -18785,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -18805,7 +18803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -18825,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -18845,7 +18843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -18865,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>447</v>
       </c>
@@ -18885,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -18905,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -18925,7 +18923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -18945,7 +18943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -18965,7 +18963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>447</v>
       </c>
@@ -18985,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -19005,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -19025,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>55</v>
       </c>
@@ -19045,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -19065,7 +19063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -19085,7 +19083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -19105,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>233</v>
       </c>
@@ -19125,7 +19123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -19145,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -19165,7 +19163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -19185,7 +19183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -19205,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -19225,7 +19223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -19245,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -19265,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -19285,7 +19283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -19305,7 +19303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1834</v>
       </c>
@@ -19325,7 +19323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>89</v>
       </c>
@@ -19345,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>258</v>
       </c>
@@ -19365,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -19385,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -19405,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -19425,7 +19423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -19445,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -19465,7 +19463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -19485,7 +19483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -19505,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -19525,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -19545,7 +19543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>233</v>
       </c>
@@ -19565,7 +19563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -19585,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -19605,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>85</v>
       </c>
@@ -19625,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -19645,7 +19643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -19665,7 +19663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>665</v>
       </c>
@@ -19685,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -19705,7 +19703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1894</v>
       </c>
@@ -19725,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -19745,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>233</v>
       </c>
@@ -19765,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -19785,7 +19783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -19805,7 +19803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>447</v>
       </c>
@@ -19825,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -19845,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -19865,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -19885,7 +19883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -19905,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>568</v>
       </c>
@@ -19925,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>233</v>
       </c>
@@ -19945,7 +19943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -19965,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -19985,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -20005,7 +20003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -20025,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -20045,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -20065,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -20085,7 +20083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>447</v>
       </c>
@@ -20105,7 +20103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>847</v>
       </c>
@@ -20125,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -20145,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -20165,7 +20163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>55</v>
       </c>
@@ -20185,7 +20183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -20205,7 +20203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>847</v>
       </c>
@@ -20225,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -20245,7 +20243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -20265,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -20285,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -20305,7 +20303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -20325,7 +20323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -20345,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -20365,7 +20363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>59</v>
       </c>
@@ -20385,7 +20383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>447</v>
       </c>
@@ -20405,7 +20403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -20425,7 +20423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -20445,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -20465,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -20485,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -20505,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -20525,7 +20523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -20545,7 +20543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -20565,7 +20563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>669</v>
       </c>
@@ -20585,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -20605,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -20625,7 +20623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -20645,7 +20643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -20665,7 +20663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -20685,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -20705,7 +20703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>85</v>
       </c>
@@ -20725,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>417</v>
       </c>
@@ -20745,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>59</v>
       </c>
@@ -20765,7 +20763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -20785,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -20805,7 +20803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>317</v>
       </c>
@@ -20825,7 +20823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -20845,7 +20843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -20865,7 +20863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>383</v>
       </c>
@@ -20885,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>317</v>
       </c>
@@ -20905,7 +20903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -20925,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>317</v>
       </c>
@@ -20945,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -20965,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>59</v>
       </c>
@@ -20985,7 +20983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -21005,7 +21003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -21025,7 +21023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>847</v>
       </c>
@@ -21045,7 +21043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -21065,7 +21063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -21085,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -21105,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2103</v>
       </c>
@@ -21125,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -21145,7 +21143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -21165,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2113</v>
       </c>
@@ -21185,7 +21183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>59</v>
       </c>
@@ -21205,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>847</v>
       </c>
@@ -21225,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>214</v>
       </c>
@@ -21245,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>390</v>
       </c>
@@ -21265,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -21285,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>41</v>
       </c>
@@ -21305,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>55</v>
       </c>
@@ -21325,7 +21323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -21345,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -21365,7 +21363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -21385,7 +21383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>233</v>
       </c>
@@ -21405,7 +21403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -21425,7 +21423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>59</v>
       </c>
@@ -21445,7 +21443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -21465,7 +21463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -21485,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -21505,7 +21503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -21525,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -21545,7 +21543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>59</v>
       </c>
@@ -21565,7 +21563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -21585,7 +21583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -21605,7 +21603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -21625,7 +21623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -21645,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -21665,7 +21663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -21685,7 +21683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -21705,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -21725,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2196</v>
       </c>
@@ -21745,7 +21743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>26</v>
       </c>
@@ -21765,7 +21763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>37</v>
       </c>
@@ -21785,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -21805,7 +21803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>59</v>
       </c>
@@ -21825,7 +21823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -21845,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -21865,7 +21863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>390</v>
       </c>
@@ -21885,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>59</v>
       </c>
@@ -21905,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>18</v>
       </c>
@@ -21925,7 +21923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>22</v>
       </c>
@@ -21945,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -21965,7 +21963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>233</v>
       </c>
@@ -21985,7 +21983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>85</v>
       </c>
@@ -22005,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1238</v>
       </c>
@@ -22025,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>258</v>
       </c>
@@ -22045,7 +22043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>390</v>
       </c>
@@ -22065,7 +22063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>37</v>
       </c>
@@ -22085,7 +22083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2249</v>
       </c>
@@ -22105,7 +22103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2253</v>
       </c>
@@ -22125,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -22145,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -22165,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>233</v>
       </c>
@@ -22185,7 +22183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>22</v>
       </c>
@@ -22205,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>55</v>
       </c>
@@ -22225,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>22</v>
       </c>
@@ -22245,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -22265,7 +22263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>233</v>
       </c>
@@ -22285,7 +22283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -22305,7 +22303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>22</v>
       </c>
@@ -22325,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>59</v>
       </c>
@@ -22345,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>233</v>
       </c>
@@ -22365,7 +22363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>85</v>
       </c>
@@ -22385,7 +22383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>233</v>
       </c>
@@ -22405,7 +22403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>447</v>
       </c>
@@ -22425,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>22</v>
       </c>
